--- a/INACAPestadisticaSede/poblacion/11_Ñuñoa.xlsx
+++ b/INACAPestadisticaSede/poblacion/11_Ñuñoa.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\INACAPestadisticaSede\poblacion\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1D0800-FFE9-4126-A29E-396FC9312298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Población" sheetId="1" r:id="rId1"/>
-    <sheet name="PoblaciónSexo" sheetId="2" r:id="rId2"/>
-    <sheet name="PoblaciónTipo" sheetId="3" r:id="rId3"/>
-    <sheet name="PoblaciónEdad" sheetId="4" r:id="rId4"/>
+    <sheet name="INICIO" sheetId="5" r:id="rId1"/>
+    <sheet name="Población" sheetId="1" r:id="rId2"/>
+    <sheet name="PoblaciónSexo" sheetId="2" r:id="rId3"/>
+    <sheet name="PoblaciónTipo" sheetId="3" r:id="rId4"/>
+    <sheet name="PoblaciónEdad" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="65">
   <si>
     <t>COD_COMUNA</t>
   </si>
@@ -177,12 +184,48 @@
   <si>
     <t>17. más de 80 años</t>
   </si>
+  <si>
+    <t>Detalle de Bases de Datos de Proyección de Población 2003-2035 [INE]</t>
+  </si>
+  <si>
+    <t>Seleccione alguna de las celdas coloreadas para ver los detalles. Puede regresar a esta página haciendo click en la celda INICIO dispuesta en cada tabla detallada.</t>
+  </si>
+  <si>
+    <t>Niveles</t>
+  </si>
+  <si>
+    <t>Vínculo</t>
+  </si>
+  <si>
+    <t>Población</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Población por Sexo</t>
+  </si>
+  <si>
+    <t>Tipo (Rural-Urbana)</t>
+  </si>
+  <si>
+    <t>Población por Tipo</t>
+  </si>
+  <si>
+    <t>Clase de Edad</t>
+  </si>
+  <si>
+    <t>Población por Edad</t>
+  </si>
+  <si>
+    <t>INICIO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,16 +241,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -230,26 +314,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Entrada" xfId="1" builtinId="20"/>
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{ACF846AF-D1B6-43A7-BD3C-573161C0908C}"/>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -291,7 +492,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,9 +524,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,6 +576,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,1709 +769,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5143FB0-4257-4E86-A97A-069868A4D986}">
+  <dimension ref="B1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="3.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>9999</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>2003</v>
-      </c>
-      <c r="D2">
-        <v>160084</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>9999</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>2004</v>
-      </c>
-      <c r="D3">
-        <v>163437</v>
-      </c>
-      <c r="E3">
-        <v>2.1</v>
-      </c>
-      <c r="G3">
-        <v>3353</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>9999</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>2005</v>
-      </c>
-      <c r="D4">
-        <v>166677</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>9999</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>2006</v>
-      </c>
-      <c r="D5">
-        <v>169791</v>
-      </c>
-      <c r="E5">
-        <v>1.9</v>
-      </c>
-      <c r="G5">
-        <v>3114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>9999</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>2007</v>
-      </c>
-      <c r="D6">
-        <v>172951</v>
-      </c>
-      <c r="E6">
-        <v>1.9</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>3160</v>
-      </c>
-      <c r="H6">
-        <v>12867</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>9999</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>2008</v>
-      </c>
-      <c r="D7">
-        <v>176180</v>
-      </c>
-      <c r="E7">
-        <v>1.9</v>
-      </c>
-      <c r="F7">
-        <v>7.8</v>
-      </c>
-      <c r="G7">
-        <v>3229</v>
-      </c>
-      <c r="H7">
-        <v>12743</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>9999</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>2009</v>
-      </c>
-      <c r="D8">
-        <v>179535</v>
-      </c>
-      <c r="E8">
-        <v>1.9</v>
-      </c>
-      <c r="F8">
-        <v>7.7</v>
-      </c>
-      <c r="G8">
-        <v>3355</v>
-      </c>
-      <c r="H8">
-        <v>12858</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>9999</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>2010</v>
-      </c>
-      <c r="D9">
-        <v>182863</v>
-      </c>
-      <c r="E9">
-        <v>1.9</v>
-      </c>
-      <c r="F9">
-        <v>7.7</v>
-      </c>
-      <c r="G9">
-        <v>3328</v>
-      </c>
-      <c r="H9">
-        <v>13072</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>9999</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>2011</v>
-      </c>
-      <c r="D10">
-        <v>186171</v>
-      </c>
-      <c r="E10">
-        <v>1.8</v>
-      </c>
-      <c r="F10">
-        <v>7.6</v>
-      </c>
-      <c r="G10">
-        <v>3308</v>
-      </c>
-      <c r="H10">
-        <v>13220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>9999</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>2012</v>
-      </c>
-      <c r="D11">
-        <v>189703</v>
-      </c>
-      <c r="E11">
-        <v>1.9</v>
-      </c>
-      <c r="F11">
-        <v>7.7</v>
-      </c>
-      <c r="G11">
-        <v>3532</v>
-      </c>
-      <c r="H11">
-        <v>13523</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>9999</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>2013</v>
-      </c>
-      <c r="D12">
-        <v>193314</v>
-      </c>
-      <c r="E12">
-        <v>1.9</v>
-      </c>
-      <c r="F12">
-        <v>7.7</v>
-      </c>
-      <c r="G12">
-        <v>3611</v>
-      </c>
-      <c r="H12">
-        <v>13779</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>9999</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>2014</v>
-      </c>
-      <c r="D13">
-        <v>196537</v>
-      </c>
-      <c r="E13">
-        <v>1.7</v>
-      </c>
-      <c r="F13">
-        <v>7.5</v>
-      </c>
-      <c r="G13">
-        <v>3223</v>
-      </c>
-      <c r="H13">
-        <v>13674</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>9999</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>2015</v>
-      </c>
-      <c r="D14">
-        <v>199954</v>
-      </c>
-      <c r="E14">
-        <v>1.7</v>
-      </c>
-      <c r="F14">
-        <v>7.4</v>
-      </c>
-      <c r="G14">
-        <v>3417</v>
-      </c>
-      <c r="H14">
-        <v>13783</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
-        <v>9999</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>2016</v>
-      </c>
-      <c r="D15">
-        <v>203745</v>
-      </c>
-      <c r="E15">
-        <v>1.9</v>
-      </c>
-      <c r="F15">
-        <v>7.4</v>
-      </c>
-      <c r="G15">
-        <v>3791</v>
-      </c>
-      <c r="H15">
-        <v>14042</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>9999</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>2017</v>
-      </c>
-      <c r="D16">
-        <v>208048</v>
-      </c>
-      <c r="E16">
-        <v>2.1</v>
-      </c>
-      <c r="F16">
-        <v>7.6</v>
-      </c>
-      <c r="G16">
-        <v>4303</v>
-      </c>
-      <c r="H16">
-        <v>14734</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
-        <v>9999</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>2018</v>
-      </c>
-      <c r="D17">
-        <v>216267</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-      <c r="G17">
-        <v>8219</v>
-      </c>
-      <c r="H17">
-        <v>19730</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
-        <v>9999</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>2019</v>
-      </c>
-      <c r="D18">
-        <v>225484</v>
-      </c>
-      <c r="E18">
-        <v>4.3</v>
-      </c>
-      <c r="F18">
-        <v>12.8</v>
-      </c>
-      <c r="G18">
-        <v>9217</v>
-      </c>
-      <c r="H18">
-        <v>25530</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19">
-        <v>9999</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <v>2020</v>
-      </c>
-      <c r="D19">
-        <v>234254</v>
-      </c>
-      <c r="E19">
-        <v>3.9</v>
-      </c>
-      <c r="F19">
-        <v>15</v>
-      </c>
-      <c r="G19">
-        <v>8770</v>
-      </c>
-      <c r="H19">
-        <v>30509</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20">
-        <v>9999</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>2021</v>
-      </c>
-      <c r="D20">
-        <v>239409</v>
-      </c>
-      <c r="E20">
-        <v>2.2</v>
-      </c>
-      <c r="F20">
-        <v>15.1</v>
-      </c>
-      <c r="G20">
-        <v>5155</v>
-      </c>
-      <c r="H20">
-        <v>31361</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
-        <v>9999</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21">
-        <v>2022</v>
-      </c>
-      <c r="D21">
-        <v>242951</v>
-      </c>
-      <c r="E21">
-        <v>1.5</v>
-      </c>
-      <c r="F21">
-        <v>12.3</v>
-      </c>
-      <c r="G21">
-        <v>3542</v>
-      </c>
-      <c r="H21">
-        <v>26684</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22">
-        <v>9999</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22">
-        <v>2023</v>
-      </c>
-      <c r="D22">
-        <v>246248</v>
-      </c>
-      <c r="E22">
-        <v>1.4</v>
-      </c>
-      <c r="F22">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="G22">
-        <v>3297</v>
-      </c>
-      <c r="H22">
-        <v>20764</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
-        <v>9999</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <v>2024</v>
-      </c>
-      <c r="D23">
-        <v>249575</v>
-      </c>
-      <c r="E23">
-        <v>1.4</v>
-      </c>
-      <c r="F23">
-        <v>6.5</v>
-      </c>
-      <c r="G23">
-        <v>3327</v>
-      </c>
-      <c r="H23">
-        <v>15321</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
-        <v>9999</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24">
-        <v>2025</v>
-      </c>
-      <c r="D24">
-        <v>252929</v>
-      </c>
-      <c r="E24">
-        <v>1.3</v>
-      </c>
-      <c r="F24">
-        <v>5.6</v>
-      </c>
-      <c r="G24">
-        <v>3354</v>
-      </c>
-      <c r="H24">
-        <v>13520</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25">
-        <v>9999</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25">
-        <v>2026</v>
-      </c>
-      <c r="D25">
-        <v>256364</v>
-      </c>
-      <c r="E25">
-        <v>1.4</v>
-      </c>
-      <c r="F25">
-        <v>5.5</v>
-      </c>
-      <c r="G25">
-        <v>3435</v>
-      </c>
-      <c r="H25">
-        <v>13413</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26">
-        <v>9999</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26">
-        <v>2027</v>
-      </c>
-      <c r="D26">
-        <v>259909</v>
-      </c>
-      <c r="E26">
-        <v>1.4</v>
-      </c>
-      <c r="F26">
-        <v>5.5</v>
-      </c>
-      <c r="G26">
-        <v>3545</v>
-      </c>
-      <c r="H26">
-        <v>13661</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27">
-        <v>9999</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27">
-        <v>2028</v>
-      </c>
-      <c r="D27">
-        <v>263605</v>
-      </c>
-      <c r="E27">
-        <v>1.4</v>
-      </c>
-      <c r="F27">
-        <v>5.6</v>
-      </c>
-      <c r="G27">
-        <v>3696</v>
-      </c>
-      <c r="H27">
-        <v>14030</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28">
-        <v>9999</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28">
-        <v>2029</v>
-      </c>
-      <c r="D28">
-        <v>267404</v>
-      </c>
-      <c r="E28">
-        <v>1.4</v>
-      </c>
-      <c r="F28">
-        <v>5.7</v>
-      </c>
-      <c r="G28">
-        <v>3799</v>
-      </c>
-      <c r="H28">
-        <v>14475</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29">
-        <v>9999</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29">
-        <v>2030</v>
-      </c>
-      <c r="D29">
-        <v>271279</v>
-      </c>
-      <c r="E29">
-        <v>1.4</v>
-      </c>
-      <c r="F29">
-        <v>5.8</v>
-      </c>
-      <c r="G29">
-        <v>3875</v>
-      </c>
-      <c r="H29">
-        <v>14915</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30">
-        <v>9999</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30">
-        <v>2031</v>
-      </c>
-      <c r="D30">
-        <v>275196</v>
-      </c>
-      <c r="E30">
-        <v>1.4</v>
-      </c>
-      <c r="F30">
-        <v>5.9</v>
-      </c>
-      <c r="G30">
-        <v>3917</v>
-      </c>
-      <c r="H30">
-        <v>15287</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31">
-        <v>9999</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31">
-        <v>2032</v>
-      </c>
-      <c r="D31">
-        <v>279119</v>
-      </c>
-      <c r="E31">
-        <v>1.4</v>
-      </c>
-      <c r="F31">
-        <v>5.9</v>
-      </c>
-      <c r="G31">
-        <v>3923</v>
-      </c>
-      <c r="H31">
-        <v>15514</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32">
-        <v>9999</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32">
-        <v>2033</v>
-      </c>
-      <c r="D32">
-        <v>283056</v>
-      </c>
-      <c r="E32">
-        <v>1.4</v>
-      </c>
-      <c r="F32">
-        <v>5.9</v>
-      </c>
-      <c r="G32">
-        <v>3937</v>
-      </c>
-      <c r="H32">
-        <v>15652</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33">
-        <v>9999</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33">
-        <v>2034</v>
-      </c>
-      <c r="D33">
-        <v>287023</v>
-      </c>
-      <c r="E33">
-        <v>1.4</v>
-      </c>
-      <c r="F33">
-        <v>5.8</v>
-      </c>
-      <c r="G33">
-        <v>3967</v>
-      </c>
-      <c r="H33">
-        <v>15744</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34">
-        <v>9999</v>
-      </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34">
-        <v>2035</v>
-      </c>
-      <c r="D34">
-        <v>291014</v>
-      </c>
-      <c r="E34">
-        <v>1.4</v>
-      </c>
-      <c r="F34">
-        <v>5.7</v>
-      </c>
-      <c r="G34">
-        <v>3991</v>
-      </c>
-      <c r="H34">
-        <v>15818</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35">
-        <v>13120</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35">
-        <v>2003</v>
-      </c>
-      <c r="D35">
-        <v>160084</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36">
-        <v>13120</v>
-      </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36">
-        <v>2004</v>
-      </c>
-      <c r="D36">
-        <v>163437</v>
-      </c>
-      <c r="E36">
-        <v>2.1</v>
-      </c>
-      <c r="G36">
-        <v>3353</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37">
-        <v>13120</v>
-      </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37">
-        <v>2005</v>
-      </c>
-      <c r="D37">
-        <v>166677</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="G37">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38">
-        <v>13120</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38">
-        <v>2006</v>
-      </c>
-      <c r="D38">
-        <v>169791</v>
-      </c>
-      <c r="E38">
-        <v>1.9</v>
-      </c>
-      <c r="G38">
-        <v>3114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39">
-        <v>13120</v>
-      </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39">
-        <v>2007</v>
-      </c>
-      <c r="D39">
-        <v>172951</v>
-      </c>
-      <c r="E39">
-        <v>1.9</v>
-      </c>
-      <c r="F39">
-        <v>8</v>
-      </c>
-      <c r="G39">
-        <v>3160</v>
-      </c>
-      <c r="H39">
-        <v>12867</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
-        <v>13120</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40">
-        <v>2008</v>
-      </c>
-      <c r="D40">
-        <v>176180</v>
-      </c>
-      <c r="E40">
-        <v>1.9</v>
-      </c>
-      <c r="F40">
-        <v>7.8</v>
-      </c>
-      <c r="G40">
-        <v>3229</v>
-      </c>
-      <c r="H40">
-        <v>12743</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41">
-        <v>13120</v>
-      </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41">
-        <v>2009</v>
-      </c>
-      <c r="D41">
-        <v>179535</v>
-      </c>
-      <c r="E41">
-        <v>1.9</v>
-      </c>
-      <c r="F41">
-        <v>7.7</v>
-      </c>
-      <c r="G41">
-        <v>3355</v>
-      </c>
-      <c r="H41">
-        <v>12858</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42">
-        <v>13120</v>
-      </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42">
-        <v>2010</v>
-      </c>
-      <c r="D42">
-        <v>182863</v>
-      </c>
-      <c r="E42">
-        <v>1.9</v>
-      </c>
-      <c r="F42">
-        <v>7.7</v>
-      </c>
-      <c r="G42">
-        <v>3328</v>
-      </c>
-      <c r="H42">
-        <v>13072</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43">
-        <v>13120</v>
-      </c>
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43">
-        <v>2011</v>
-      </c>
-      <c r="D43">
-        <v>186171</v>
-      </c>
-      <c r="E43">
-        <v>1.8</v>
-      </c>
-      <c r="F43">
-        <v>7.6</v>
-      </c>
-      <c r="G43">
-        <v>3308</v>
-      </c>
-      <c r="H43">
-        <v>13220</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44">
-        <v>13120</v>
-      </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44">
-        <v>2012</v>
-      </c>
-      <c r="D44">
-        <v>189703</v>
-      </c>
-      <c r="E44">
-        <v>1.9</v>
-      </c>
-      <c r="F44">
-        <v>7.7</v>
-      </c>
-      <c r="G44">
-        <v>3532</v>
-      </c>
-      <c r="H44">
-        <v>13523</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45">
-        <v>13120</v>
-      </c>
-      <c r="B45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45">
-        <v>2013</v>
-      </c>
-      <c r="D45">
-        <v>193314</v>
-      </c>
-      <c r="E45">
-        <v>1.9</v>
-      </c>
-      <c r="F45">
-        <v>7.7</v>
-      </c>
-      <c r="G45">
-        <v>3611</v>
-      </c>
-      <c r="H45">
-        <v>13779</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
-        <v>13120</v>
-      </c>
-      <c r="B46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46">
-        <v>2014</v>
-      </c>
-      <c r="D46">
-        <v>196537</v>
-      </c>
-      <c r="E46">
-        <v>1.7</v>
-      </c>
-      <c r="F46">
-        <v>7.5</v>
-      </c>
-      <c r="G46">
-        <v>3223</v>
-      </c>
-      <c r="H46">
-        <v>13674</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47">
-        <v>13120</v>
-      </c>
-      <c r="B47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47">
-        <v>2015</v>
-      </c>
-      <c r="D47">
-        <v>199954</v>
-      </c>
-      <c r="E47">
-        <v>1.7</v>
-      </c>
-      <c r="F47">
-        <v>7.4</v>
-      </c>
-      <c r="G47">
-        <v>3417</v>
-      </c>
-      <c r="H47">
-        <v>13783</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48">
-        <v>13120</v>
-      </c>
-      <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48">
-        <v>2016</v>
-      </c>
-      <c r="D48">
-        <v>203745</v>
-      </c>
-      <c r="E48">
-        <v>1.9</v>
-      </c>
-      <c r="F48">
-        <v>7.4</v>
-      </c>
-      <c r="G48">
-        <v>3791</v>
-      </c>
-      <c r="H48">
-        <v>14042</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49">
-        <v>13120</v>
-      </c>
-      <c r="B49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49">
-        <v>2017</v>
-      </c>
-      <c r="D49">
-        <v>208048</v>
-      </c>
-      <c r="E49">
-        <v>2.1</v>
-      </c>
-      <c r="F49">
-        <v>7.6</v>
-      </c>
-      <c r="G49">
-        <v>4303</v>
-      </c>
-      <c r="H49">
-        <v>14734</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50">
-        <v>13120</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50">
-        <v>2018</v>
-      </c>
-      <c r="D50">
-        <v>216267</v>
-      </c>
-      <c r="E50">
-        <v>4</v>
-      </c>
-      <c r="F50">
-        <v>10</v>
-      </c>
-      <c r="G50">
-        <v>8219</v>
-      </c>
-      <c r="H50">
-        <v>19730</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51">
-        <v>13120</v>
-      </c>
-      <c r="B51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51">
-        <v>2019</v>
-      </c>
-      <c r="D51">
-        <v>225484</v>
-      </c>
-      <c r="E51">
-        <v>4.3</v>
-      </c>
-      <c r="F51">
-        <v>12.8</v>
-      </c>
-      <c r="G51">
-        <v>9217</v>
-      </c>
-      <c r="H51">
-        <v>25530</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52">
-        <v>13120</v>
-      </c>
-      <c r="B52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52">
-        <v>2020</v>
-      </c>
-      <c r="D52">
-        <v>234254</v>
-      </c>
-      <c r="E52">
-        <v>3.9</v>
-      </c>
-      <c r="F52">
-        <v>15</v>
-      </c>
-      <c r="G52">
-        <v>8770</v>
-      </c>
-      <c r="H52">
-        <v>30509</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53">
-        <v>13120</v>
-      </c>
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53">
-        <v>2021</v>
-      </c>
-      <c r="D53">
-        <v>239409</v>
-      </c>
-      <c r="E53">
-        <v>2.2</v>
-      </c>
-      <c r="F53">
-        <v>15.1</v>
-      </c>
-      <c r="G53">
-        <v>5155</v>
-      </c>
-      <c r="H53">
-        <v>31361</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54">
-        <v>13120</v>
-      </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54">
-        <v>2022</v>
-      </c>
-      <c r="D54">
-        <v>242951</v>
-      </c>
-      <c r="E54">
-        <v>1.5</v>
-      </c>
-      <c r="F54">
-        <v>12.3</v>
-      </c>
-      <c r="G54">
-        <v>3542</v>
-      </c>
-      <c r="H54">
-        <v>26684</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55">
-        <v>13120</v>
-      </c>
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55">
-        <v>2023</v>
-      </c>
-      <c r="D55">
-        <v>246248</v>
-      </c>
-      <c r="E55">
-        <v>1.4</v>
-      </c>
-      <c r="F55">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="G55">
-        <v>3297</v>
-      </c>
-      <c r="H55">
-        <v>20764</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56">
-        <v>13120</v>
-      </c>
-      <c r="B56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56">
-        <v>2024</v>
-      </c>
-      <c r="D56">
-        <v>249575</v>
-      </c>
-      <c r="E56">
-        <v>1.4</v>
-      </c>
-      <c r="F56">
-        <v>6.5</v>
-      </c>
-      <c r="G56">
-        <v>3327</v>
-      </c>
-      <c r="H56">
-        <v>15321</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57">
-        <v>13120</v>
-      </c>
-      <c r="B57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57">
-        <v>2025</v>
-      </c>
-      <c r="D57">
-        <v>252929</v>
-      </c>
-      <c r="E57">
-        <v>1.3</v>
-      </c>
-      <c r="F57">
-        <v>5.6</v>
-      </c>
-      <c r="G57">
-        <v>3354</v>
-      </c>
-      <c r="H57">
-        <v>13520</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58">
-        <v>13120</v>
-      </c>
-      <c r="B58" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58">
-        <v>2026</v>
-      </c>
-      <c r="D58">
-        <v>256364</v>
-      </c>
-      <c r="E58">
-        <v>1.4</v>
-      </c>
-      <c r="F58">
-        <v>5.5</v>
-      </c>
-      <c r="G58">
-        <v>3435</v>
-      </c>
-      <c r="H58">
-        <v>13413</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59">
-        <v>13120</v>
-      </c>
-      <c r="B59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59">
-        <v>2027</v>
-      </c>
-      <c r="D59">
-        <v>259909</v>
-      </c>
-      <c r="E59">
-        <v>1.4</v>
-      </c>
-      <c r="F59">
-        <v>5.5</v>
-      </c>
-      <c r="G59">
-        <v>3545</v>
-      </c>
-      <c r="H59">
-        <v>13661</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60">
-        <v>13120</v>
-      </c>
-      <c r="B60" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60">
-        <v>2028</v>
-      </c>
-      <c r="D60">
-        <v>263605</v>
-      </c>
-      <c r="E60">
-        <v>1.4</v>
-      </c>
-      <c r="F60">
-        <v>5.6</v>
-      </c>
-      <c r="G60">
-        <v>3696</v>
-      </c>
-      <c r="H60">
-        <v>14030</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61">
-        <v>13120</v>
-      </c>
-      <c r="B61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61">
-        <v>2029</v>
-      </c>
-      <c r="D61">
-        <v>267404</v>
-      </c>
-      <c r="E61">
-        <v>1.4</v>
-      </c>
-      <c r="F61">
-        <v>5.7</v>
-      </c>
-      <c r="G61">
-        <v>3799</v>
-      </c>
-      <c r="H61">
-        <v>14475</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62">
-        <v>13120</v>
-      </c>
-      <c r="B62" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62">
-        <v>2030</v>
-      </c>
-      <c r="D62">
-        <v>271279</v>
-      </c>
-      <c r="E62">
-        <v>1.4</v>
-      </c>
-      <c r="F62">
-        <v>5.8</v>
-      </c>
-      <c r="G62">
-        <v>3875</v>
-      </c>
-      <c r="H62">
-        <v>14915</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63">
-        <v>13120</v>
-      </c>
-      <c r="B63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63">
-        <v>2031</v>
-      </c>
-      <c r="D63">
-        <v>275196</v>
-      </c>
-      <c r="E63">
-        <v>1.4</v>
-      </c>
-      <c r="F63">
-        <v>5.9</v>
-      </c>
-      <c r="G63">
-        <v>3917</v>
-      </c>
-      <c r="H63">
-        <v>15287</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64">
-        <v>13120</v>
-      </c>
-      <c r="B64" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64">
-        <v>2032</v>
-      </c>
-      <c r="D64">
-        <v>279119</v>
-      </c>
-      <c r="E64">
-        <v>1.4</v>
-      </c>
-      <c r="F64">
-        <v>5.9</v>
-      </c>
-      <c r="G64">
-        <v>3923</v>
-      </c>
-      <c r="H64">
-        <v>15514</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65">
-        <v>13120</v>
-      </c>
-      <c r="B65" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65">
-        <v>2033</v>
-      </c>
-      <c r="D65">
-        <v>283056</v>
-      </c>
-      <c r="E65">
-        <v>1.4</v>
-      </c>
-      <c r="F65">
-        <v>5.9</v>
-      </c>
-      <c r="G65">
-        <v>3937</v>
-      </c>
-      <c r="H65">
-        <v>15652</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66">
-        <v>13120</v>
-      </c>
-      <c r="B66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66">
-        <v>2034</v>
-      </c>
-      <c r="D66">
-        <v>287023</v>
-      </c>
-      <c r="E66">
-        <v>1.4</v>
-      </c>
-      <c r="F66">
-        <v>5.8</v>
-      </c>
-      <c r="G66">
-        <v>3967</v>
-      </c>
-      <c r="H66">
-        <v>15744</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67">
-        <v>13120</v>
-      </c>
-      <c r="B67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67">
-        <v>2035</v>
-      </c>
-      <c r="D67">
-        <v>291014</v>
-      </c>
-      <c r="E67">
-        <v>1.4</v>
-      </c>
-      <c r="F67">
-        <v>5.7</v>
-      </c>
-      <c r="G67">
-        <v>3991</v>
-      </c>
-      <c r="H67">
-        <v>15818</v>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="2:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:E4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F5" location="Población!A1" display="Población" xr:uid="{75A94BD2-E149-40F6-B14D-40DC73CA64BC}"/>
+    <hyperlink ref="F6" location="PoblaciónSexo!A1" display="Población por Sexo" xr:uid="{386FD8E0-6155-4E13-9871-11F5D18EDBAF}"/>
+    <hyperlink ref="F7" location="PoblaciónTipo!A1" display="Población por Tipo" xr:uid="{707290BA-B59B-40B4-AE3A-F9B24015108E}"/>
+    <hyperlink ref="F8" location="PoblaciónEdad!A1" display="Población por Edad" xr:uid="{E6EDAEFF-1C35-40C7-BA87-B9768B5F6C47}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2245,46 +919,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>7</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>9999</v>
       </c>
@@ -2295,22 +948,10 @@
         <v>2003</v>
       </c>
       <c r="D2">
-        <v>71557</v>
-      </c>
-      <c r="E2">
-        <v>88527</v>
-      </c>
-      <c r="F2">
         <v>160084</v>
       </c>
-      <c r="G2">
-        <v>44.7</v>
-      </c>
-      <c r="H2">
-        <v>55.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>9999</v>
       </c>
@@ -2321,34 +962,16 @@
         <v>2004</v>
       </c>
       <c r="D3">
-        <v>73194</v>
+        <v>163437</v>
       </c>
       <c r="E3">
-        <v>90243</v>
-      </c>
-      <c r="F3">
-        <v>163437</v>
+        <v>2.1</v>
       </c>
       <c r="G3">
-        <v>44.8</v>
-      </c>
-      <c r="H3">
-        <v>55.2</v>
-      </c>
-      <c r="I3">
-        <v>2.3</v>
-      </c>
-      <c r="J3">
-        <v>1.9</v>
-      </c>
-      <c r="M3">
-        <v>1637</v>
-      </c>
-      <c r="N3">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9999</v>
       </c>
@@ -2359,34 +982,16 @@
         <v>2005</v>
       </c>
       <c r="D4">
-        <v>74806</v>
+        <v>166677</v>
       </c>
       <c r="E4">
-        <v>91871</v>
-      </c>
-      <c r="F4">
-        <v>166677</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>44.9</v>
-      </c>
-      <c r="H4">
-        <v>55.1</v>
-      </c>
-      <c r="I4">
-        <v>2.2</v>
-      </c>
-      <c r="J4">
-        <v>1.8</v>
-      </c>
-      <c r="M4">
-        <v>1612</v>
-      </c>
-      <c r="N4">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9999</v>
       </c>
@@ -2397,34 +1002,16 @@
         <v>2006</v>
       </c>
       <c r="D5">
-        <v>76350</v>
+        <v>169791</v>
       </c>
       <c r="E5">
-        <v>93441</v>
-      </c>
-      <c r="F5">
-        <v>169791</v>
+        <v>1.9</v>
       </c>
       <c r="G5">
-        <v>45</v>
-      </c>
-      <c r="H5">
-        <v>55</v>
-      </c>
-      <c r="I5">
-        <v>2.1</v>
-      </c>
-      <c r="J5">
-        <v>1.7</v>
-      </c>
-      <c r="M5">
-        <v>1544</v>
-      </c>
-      <c r="N5">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9999</v>
       </c>
@@ -2435,46 +1022,22 @@
         <v>2007</v>
       </c>
       <c r="D6">
-        <v>77931</v>
+        <v>172951</v>
       </c>
       <c r="E6">
-        <v>95020</v>
+        <v>1.9</v>
       </c>
       <c r="F6">
-        <v>172951</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>45.1</v>
+        <v>3160</v>
       </c>
       <c r="H6">
-        <v>54.9</v>
-      </c>
-      <c r="I6">
-        <v>2.1</v>
-      </c>
-      <c r="J6">
-        <v>1.7</v>
-      </c>
-      <c r="K6">
-        <v>8.9</v>
-      </c>
-      <c r="L6">
-        <v>7.3</v>
-      </c>
-      <c r="M6">
-        <v>1581</v>
-      </c>
-      <c r="N6">
-        <v>1579</v>
-      </c>
-      <c r="O6">
-        <v>6374</v>
-      </c>
-      <c r="P6">
-        <v>6493</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>12867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>9999</v>
       </c>
@@ -2485,46 +1048,22 @@
         <v>2008</v>
       </c>
       <c r="D7">
-        <v>79540</v>
+        <v>176180</v>
       </c>
       <c r="E7">
-        <v>96640</v>
+        <v>1.9</v>
       </c>
       <c r="F7">
-        <v>176180</v>
+        <v>7.8</v>
       </c>
       <c r="G7">
-        <v>45.1</v>
+        <v>3229</v>
       </c>
       <c r="H7">
-        <v>54.9</v>
-      </c>
-      <c r="I7">
-        <v>2.1</v>
-      </c>
-      <c r="J7">
-        <v>1.7</v>
-      </c>
-      <c r="K7">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="L7">
-        <v>7.1</v>
-      </c>
-      <c r="M7">
-        <v>1609</v>
-      </c>
-      <c r="N7">
-        <v>1620</v>
-      </c>
-      <c r="O7">
-        <v>6346</v>
-      </c>
-      <c r="P7">
-        <v>6397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>12743</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>9999</v>
       </c>
@@ -2535,46 +1074,22 @@
         <v>2009</v>
       </c>
       <c r="D8">
-        <v>81206</v>
+        <v>179535</v>
       </c>
       <c r="E8">
-        <v>98329</v>
+        <v>1.9</v>
       </c>
       <c r="F8">
-        <v>179535</v>
+        <v>7.7</v>
       </c>
       <c r="G8">
-        <v>45.2</v>
+        <v>3355</v>
       </c>
       <c r="H8">
-        <v>54.8</v>
-      </c>
-      <c r="I8">
-        <v>2.1</v>
-      </c>
-      <c r="J8">
-        <v>1.7</v>
-      </c>
-      <c r="K8">
-        <v>8.6</v>
-      </c>
-      <c r="L8">
-        <v>7</v>
-      </c>
-      <c r="M8">
-        <v>1666</v>
-      </c>
-      <c r="N8">
-        <v>1689</v>
-      </c>
-      <c r="O8">
-        <v>6400</v>
-      </c>
-      <c r="P8">
-        <v>6458</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>12858</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9999</v>
       </c>
@@ -2585,46 +1100,22 @@
         <v>2010</v>
       </c>
       <c r="D9">
-        <v>82856</v>
+        <v>182863</v>
       </c>
       <c r="E9">
-        <v>100007</v>
+        <v>1.9</v>
       </c>
       <c r="F9">
-        <v>182863</v>
+        <v>7.7</v>
       </c>
       <c r="G9">
-        <v>45.3</v>
+        <v>3328</v>
       </c>
       <c r="H9">
-        <v>54.7</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>1.7</v>
-      </c>
-      <c r="K9">
-        <v>8.5</v>
-      </c>
-      <c r="L9">
-        <v>7</v>
-      </c>
-      <c r="M9">
-        <v>1650</v>
-      </c>
-      <c r="N9">
-        <v>1678</v>
-      </c>
-      <c r="O9">
-        <v>6506</v>
-      </c>
-      <c r="P9">
-        <v>6566</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>13072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9999</v>
       </c>
@@ -2635,46 +1126,22 @@
         <v>2011</v>
       </c>
       <c r="D10">
-        <v>84513</v>
+        <v>186171</v>
       </c>
       <c r="E10">
-        <v>101658</v>
+        <v>1.8</v>
       </c>
       <c r="F10">
-        <v>186171</v>
+        <v>7.6</v>
       </c>
       <c r="G10">
-        <v>45.4</v>
+        <v>3308</v>
       </c>
       <c r="H10">
-        <v>54.6</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10">
-        <v>1.7</v>
-      </c>
-      <c r="K10">
-        <v>8.4</v>
-      </c>
-      <c r="L10">
-        <v>7</v>
-      </c>
-      <c r="M10">
-        <v>1657</v>
-      </c>
-      <c r="N10">
-        <v>1651</v>
-      </c>
-      <c r="O10">
-        <v>6582</v>
-      </c>
-      <c r="P10">
-        <v>6638</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>13220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9999</v>
       </c>
@@ -2685,46 +1152,22 @@
         <v>2012</v>
       </c>
       <c r="D11">
-        <v>86266</v>
+        <v>189703</v>
       </c>
       <c r="E11">
-        <v>103437</v>
+        <v>1.9</v>
       </c>
       <c r="F11">
-        <v>189703</v>
+        <v>7.7</v>
       </c>
       <c r="G11">
-        <v>45.5</v>
+        <v>3532</v>
       </c>
       <c r="H11">
-        <v>54.5</v>
-      </c>
-      <c r="I11">
-        <v>2.1</v>
-      </c>
-      <c r="J11">
-        <v>1.7</v>
-      </c>
-      <c r="K11">
-        <v>8.5</v>
-      </c>
-      <c r="L11">
-        <v>7</v>
-      </c>
-      <c r="M11">
-        <v>1753</v>
-      </c>
-      <c r="N11">
-        <v>1779</v>
-      </c>
-      <c r="O11">
-        <v>6726</v>
-      </c>
-      <c r="P11">
-        <v>6797</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>13523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9999</v>
       </c>
@@ -2735,46 +1178,22 @@
         <v>2013</v>
       </c>
       <c r="D12">
-        <v>88024</v>
+        <v>193314</v>
       </c>
       <c r="E12">
-        <v>105290</v>
+        <v>1.9</v>
       </c>
       <c r="F12">
-        <v>193314</v>
+        <v>7.7</v>
       </c>
       <c r="G12">
-        <v>45.5</v>
+        <v>3611</v>
       </c>
       <c r="H12">
-        <v>54.5</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <v>1.8</v>
-      </c>
-      <c r="K12">
-        <v>8.4</v>
-      </c>
-      <c r="L12">
-        <v>7.1</v>
-      </c>
-      <c r="M12">
-        <v>1758</v>
-      </c>
-      <c r="N12">
-        <v>1853</v>
-      </c>
-      <c r="O12">
-        <v>6818</v>
-      </c>
-      <c r="P12">
-        <v>6961</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>13779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9999</v>
       </c>
@@ -2785,46 +1204,22 @@
         <v>2014</v>
       </c>
       <c r="D13">
-        <v>89649</v>
+        <v>196537</v>
       </c>
       <c r="E13">
-        <v>106888</v>
+        <v>1.7</v>
       </c>
       <c r="F13">
-        <v>196537</v>
+        <v>7.5</v>
       </c>
       <c r="G13">
-        <v>45.6</v>
+        <v>3223</v>
       </c>
       <c r="H13">
-        <v>54.4</v>
-      </c>
-      <c r="I13">
-        <v>1.8</v>
-      </c>
-      <c r="J13">
-        <v>1.5</v>
-      </c>
-      <c r="K13">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L13">
-        <v>6.9</v>
-      </c>
-      <c r="M13">
-        <v>1625</v>
-      </c>
-      <c r="N13">
-        <v>1598</v>
-      </c>
-      <c r="O13">
-        <v>6793</v>
-      </c>
-      <c r="P13">
-        <v>6881</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>13674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9999</v>
       </c>
@@ -2835,46 +1230,22 @@
         <v>2015</v>
       </c>
       <c r="D14">
-        <v>91356</v>
+        <v>199954</v>
       </c>
       <c r="E14">
-        <v>108598</v>
+        <v>1.7</v>
       </c>
       <c r="F14">
-        <v>199954</v>
+        <v>7.4</v>
       </c>
       <c r="G14">
-        <v>45.7</v>
+        <v>3417</v>
       </c>
       <c r="H14">
-        <v>54.3</v>
-      </c>
-      <c r="I14">
-        <v>1.9</v>
-      </c>
-      <c r="J14">
-        <v>1.6</v>
-      </c>
-      <c r="K14">
-        <v>8.1</v>
-      </c>
-      <c r="L14">
-        <v>6.8</v>
-      </c>
-      <c r="M14">
-        <v>1707</v>
-      </c>
-      <c r="N14">
-        <v>1710</v>
-      </c>
-      <c r="O14">
-        <v>6843</v>
-      </c>
-      <c r="P14">
-        <v>6940</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>13783</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9999</v>
       </c>
@@ -2885,46 +1256,22 @@
         <v>2016</v>
       </c>
       <c r="D15">
-        <v>93216</v>
+        <v>203745</v>
       </c>
       <c r="E15">
-        <v>110529</v>
+        <v>1.9</v>
       </c>
       <c r="F15">
-        <v>203745</v>
+        <v>7.4</v>
       </c>
       <c r="G15">
-        <v>45.8</v>
+        <v>3791</v>
       </c>
       <c r="H15">
-        <v>54.2</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15">
-        <v>1.8</v>
-      </c>
-      <c r="K15">
-        <v>8.1</v>
-      </c>
-      <c r="L15">
-        <v>6.9</v>
-      </c>
-      <c r="M15">
-        <v>1860</v>
-      </c>
-      <c r="N15">
-        <v>1931</v>
-      </c>
-      <c r="O15">
-        <v>6950</v>
-      </c>
-      <c r="P15">
-        <v>7092</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>14042</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>9999</v>
       </c>
@@ -2935,46 +1282,22 @@
         <v>2017</v>
       </c>
       <c r="D16">
-        <v>95293</v>
+        <v>208048</v>
       </c>
       <c r="E16">
-        <v>112755</v>
+        <v>2.1</v>
       </c>
       <c r="F16">
-        <v>208048</v>
+        <v>7.6</v>
       </c>
       <c r="G16">
-        <v>45.8</v>
+        <v>4303</v>
       </c>
       <c r="H16">
-        <v>54.2</v>
-      </c>
-      <c r="I16">
-        <v>2.2</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="L16">
-        <v>7.1</v>
-      </c>
-      <c r="M16">
-        <v>2077</v>
-      </c>
-      <c r="N16">
-        <v>2226</v>
-      </c>
-      <c r="O16">
-        <v>7269</v>
-      </c>
-      <c r="P16">
-        <v>7465</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>14734</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>9999</v>
       </c>
@@ -2985,46 +1308,22 @@
         <v>2018</v>
       </c>
       <c r="D17">
-        <v>99320</v>
+        <v>216267</v>
       </c>
       <c r="E17">
-        <v>116947</v>
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>216267</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>45.9</v>
+        <v>8219</v>
       </c>
       <c r="H17">
-        <v>54.1</v>
-      </c>
-      <c r="I17">
-        <v>4.2</v>
-      </c>
-      <c r="J17">
-        <v>3.7</v>
-      </c>
-      <c r="K17">
-        <v>10.8</v>
-      </c>
-      <c r="L17">
-        <v>9.4</v>
-      </c>
-      <c r="M17">
-        <v>4027</v>
-      </c>
-      <c r="N17">
-        <v>4192</v>
-      </c>
-      <c r="O17">
-        <v>9671</v>
-      </c>
-      <c r="P17">
-        <v>10059</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>19730</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>9999</v>
       </c>
@@ -3035,46 +1334,22 @@
         <v>2019</v>
       </c>
       <c r="D18">
-        <v>103975</v>
+        <v>225484</v>
       </c>
       <c r="E18">
-        <v>121509</v>
+        <v>4.3</v>
       </c>
       <c r="F18">
-        <v>225484</v>
+        <v>12.8</v>
       </c>
       <c r="G18">
-        <v>46.1</v>
+        <v>9217</v>
       </c>
       <c r="H18">
-        <v>53.9</v>
-      </c>
-      <c r="I18">
-        <v>4.7</v>
-      </c>
-      <c r="J18">
-        <v>3.9</v>
-      </c>
-      <c r="K18">
-        <v>13.8</v>
-      </c>
-      <c r="L18">
-        <v>11.9</v>
-      </c>
-      <c r="M18">
-        <v>4655</v>
-      </c>
-      <c r="N18">
-        <v>4562</v>
-      </c>
-      <c r="O18">
-        <v>12619</v>
-      </c>
-      <c r="P18">
-        <v>12911</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>25530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>9999</v>
       </c>
@@ -3085,46 +1360,22 @@
         <v>2020</v>
       </c>
       <c r="D19">
-        <v>108150</v>
+        <v>234254</v>
       </c>
       <c r="E19">
-        <v>126104</v>
+        <v>3.9</v>
       </c>
       <c r="F19">
-        <v>234254</v>
+        <v>15</v>
       </c>
       <c r="G19">
-        <v>46.2</v>
+        <v>8770</v>
       </c>
       <c r="H19">
-        <v>53.8</v>
-      </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
-      <c r="J19">
-        <v>3.8</v>
-      </c>
-      <c r="K19">
-        <v>16</v>
-      </c>
-      <c r="L19">
-        <v>14.1</v>
-      </c>
-      <c r="M19">
-        <v>4175</v>
-      </c>
-      <c r="N19">
-        <v>4595</v>
-      </c>
-      <c r="O19">
-        <v>14934</v>
-      </c>
-      <c r="P19">
-        <v>15575</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>30509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9999</v>
       </c>
@@ -3135,46 +1386,22 @@
         <v>2021</v>
       </c>
       <c r="D20">
-        <v>110814</v>
+        <v>239409</v>
       </c>
       <c r="E20">
-        <v>128595</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F20">
-        <v>239409</v>
+        <v>15.1</v>
       </c>
       <c r="G20">
-        <v>46.3</v>
+        <v>5155</v>
       </c>
       <c r="H20">
-        <v>53.7</v>
-      </c>
-      <c r="I20">
-        <v>2.5</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <v>16.3</v>
-      </c>
-      <c r="L20">
-        <v>14</v>
-      </c>
-      <c r="M20">
-        <v>2664</v>
-      </c>
-      <c r="N20">
-        <v>2491</v>
-      </c>
-      <c r="O20">
-        <v>15521</v>
-      </c>
-      <c r="P20">
-        <v>15840</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>31361</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9999</v>
       </c>
@@ -3185,46 +1412,22 @@
         <v>2022</v>
       </c>
       <c r="D21">
-        <v>112820</v>
+        <v>242951</v>
       </c>
       <c r="E21">
-        <v>130131</v>
+        <v>1.5</v>
       </c>
       <c r="F21">
-        <v>242951</v>
+        <v>12.3</v>
       </c>
       <c r="G21">
-        <v>46.4</v>
+        <v>3542</v>
       </c>
       <c r="H21">
-        <v>53.6</v>
-      </c>
-      <c r="I21">
-        <v>1.8</v>
-      </c>
-      <c r="J21">
-        <v>1.2</v>
-      </c>
-      <c r="K21">
-        <v>13.6</v>
-      </c>
-      <c r="L21">
-        <v>11.3</v>
-      </c>
-      <c r="M21">
-        <v>2006</v>
-      </c>
-      <c r="N21">
-        <v>1536</v>
-      </c>
-      <c r="O21">
-        <v>13500</v>
-      </c>
-      <c r="P21">
-        <v>13184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>26684</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>9999</v>
       </c>
@@ -3235,46 +1438,22 @@
         <v>2023</v>
       </c>
       <c r="D22">
-        <v>114737</v>
+        <v>246248</v>
       </c>
       <c r="E22">
-        <v>131511</v>
+        <v>1.4</v>
       </c>
       <c r="F22">
-        <v>246248</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G22">
-        <v>46.6</v>
+        <v>3297</v>
       </c>
       <c r="H22">
-        <v>53.4</v>
-      </c>
-      <c r="I22">
-        <v>1.7</v>
-      </c>
-      <c r="J22">
-        <v>1.1</v>
-      </c>
-      <c r="K22">
-        <v>10.4</v>
-      </c>
-      <c r="L22">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="M22">
-        <v>1917</v>
-      </c>
-      <c r="N22">
-        <v>1380</v>
-      </c>
-      <c r="O22">
-        <v>10762</v>
-      </c>
-      <c r="P22">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>20764</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>9999</v>
       </c>
@@ -3285,46 +1464,22 @@
         <v>2024</v>
       </c>
       <c r="D23">
-        <v>116688</v>
+        <v>249575</v>
       </c>
       <c r="E23">
-        <v>132887</v>
+        <v>1.4</v>
       </c>
       <c r="F23">
-        <v>249575</v>
+        <v>6.5</v>
       </c>
       <c r="G23">
-        <v>46.8</v>
+        <v>3327</v>
       </c>
       <c r="H23">
-        <v>53.2</v>
-      </c>
-      <c r="I23">
-        <v>1.7</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>7.9</v>
-      </c>
-      <c r="L23">
-        <v>5.4</v>
-      </c>
-      <c r="M23">
-        <v>1951</v>
-      </c>
-      <c r="N23">
-        <v>1376</v>
-      </c>
-      <c r="O23">
-        <v>8538</v>
-      </c>
-      <c r="P23">
-        <v>6783</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>15321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>9999</v>
       </c>
@@ -3335,46 +1490,22 @@
         <v>2025</v>
       </c>
       <c r="D24">
-        <v>118668</v>
+        <v>252929</v>
       </c>
       <c r="E24">
-        <v>134261</v>
+        <v>1.3</v>
       </c>
       <c r="F24">
-        <v>252929</v>
+        <v>5.6</v>
       </c>
       <c r="G24">
-        <v>46.9</v>
+        <v>3354</v>
       </c>
       <c r="H24">
-        <v>53.1</v>
-      </c>
-      <c r="I24">
-        <v>1.7</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>7.1</v>
-      </c>
-      <c r="L24">
-        <v>4.4</v>
-      </c>
-      <c r="M24">
-        <v>1980</v>
-      </c>
-      <c r="N24">
-        <v>1374</v>
-      </c>
-      <c r="O24">
-        <v>7854</v>
-      </c>
-      <c r="P24">
-        <v>5666</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>13520</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>9999</v>
       </c>
@@ -3385,46 +1516,22 @@
         <v>2026</v>
       </c>
       <c r="D25">
-        <v>120694</v>
+        <v>256364</v>
       </c>
       <c r="E25">
-        <v>135670</v>
+        <v>1.4</v>
       </c>
       <c r="F25">
-        <v>256364</v>
+        <v>5.5</v>
       </c>
       <c r="G25">
-        <v>47.1</v>
+        <v>3435</v>
       </c>
       <c r="H25">
-        <v>52.9</v>
-      </c>
-      <c r="I25">
-        <v>1.7</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>7</v>
-      </c>
-      <c r="L25">
-        <v>4.3</v>
-      </c>
-      <c r="M25">
-        <v>2026</v>
-      </c>
-      <c r="N25">
-        <v>1409</v>
-      </c>
-      <c r="O25">
-        <v>7874</v>
-      </c>
-      <c r="P25">
-        <v>5539</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>13413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>9999</v>
       </c>
@@ -3435,46 +1542,22 @@
         <v>2027</v>
       </c>
       <c r="D26">
-        <v>122775</v>
+        <v>259909</v>
       </c>
       <c r="E26">
-        <v>137134</v>
+        <v>1.4</v>
       </c>
       <c r="F26">
-        <v>259909</v>
+        <v>5.5</v>
       </c>
       <c r="G26">
-        <v>47.2</v>
+        <v>3545</v>
       </c>
       <c r="H26">
-        <v>52.8</v>
-      </c>
-      <c r="I26">
-        <v>1.7</v>
-      </c>
-      <c r="J26">
-        <v>1.1</v>
-      </c>
-      <c r="K26">
-        <v>7</v>
-      </c>
-      <c r="L26">
-        <v>4.3</v>
-      </c>
-      <c r="M26">
-        <v>2081</v>
-      </c>
-      <c r="N26">
-        <v>1464</v>
-      </c>
-      <c r="O26">
-        <v>8038</v>
-      </c>
-      <c r="P26">
-        <v>5623</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>13661</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>9999</v>
       </c>
@@ -3485,46 +1568,22 @@
         <v>2028</v>
       </c>
       <c r="D27">
-        <v>124914</v>
+        <v>263605</v>
       </c>
       <c r="E27">
-        <v>138691</v>
+        <v>1.4</v>
       </c>
       <c r="F27">
-        <v>263605</v>
+        <v>5.6</v>
       </c>
       <c r="G27">
-        <v>47.4</v>
+        <v>3696</v>
       </c>
       <c r="H27">
-        <v>52.6</v>
-      </c>
-      <c r="I27">
-        <v>1.7</v>
-      </c>
-      <c r="J27">
-        <v>1.1</v>
-      </c>
-      <c r="K27">
-        <v>7</v>
-      </c>
-      <c r="L27">
-        <v>4.4</v>
-      </c>
-      <c r="M27">
-        <v>2139</v>
-      </c>
-      <c r="N27">
-        <v>1557</v>
-      </c>
-      <c r="O27">
-        <v>8226</v>
-      </c>
-      <c r="P27">
-        <v>5804</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+        <v>14030</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>9999</v>
       </c>
@@ -3535,46 +1594,22 @@
         <v>2029</v>
       </c>
       <c r="D28">
-        <v>127099</v>
+        <v>267404</v>
       </c>
       <c r="E28">
-        <v>140305</v>
+        <v>1.4</v>
       </c>
       <c r="F28">
-        <v>267404</v>
+        <v>5.7</v>
       </c>
       <c r="G28">
-        <v>47.5</v>
+        <v>3799</v>
       </c>
       <c r="H28">
-        <v>52.5</v>
-      </c>
-      <c r="I28">
-        <v>1.7</v>
-      </c>
-      <c r="J28">
-        <v>1.2</v>
-      </c>
-      <c r="K28">
-        <v>7.1</v>
-      </c>
-      <c r="L28">
-        <v>4.5</v>
-      </c>
-      <c r="M28">
-        <v>2185</v>
-      </c>
-      <c r="N28">
-        <v>1614</v>
-      </c>
-      <c r="O28">
-        <v>8431</v>
-      </c>
-      <c r="P28">
-        <v>6044</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+        <v>14475</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>9999</v>
       </c>
@@ -3585,46 +1620,22 @@
         <v>2030</v>
       </c>
       <c r="D29">
-        <v>129351</v>
+        <v>271279</v>
       </c>
       <c r="E29">
-        <v>141928</v>
+        <v>1.4</v>
       </c>
       <c r="F29">
-        <v>271279</v>
+        <v>5.8</v>
       </c>
       <c r="G29">
-        <v>47.7</v>
+        <v>3875</v>
       </c>
       <c r="H29">
-        <v>52.3</v>
-      </c>
-      <c r="I29">
-        <v>1.8</v>
-      </c>
-      <c r="J29">
-        <v>1.2</v>
-      </c>
-      <c r="K29">
-        <v>7.2</v>
-      </c>
-      <c r="L29">
-        <v>4.6</v>
-      </c>
-      <c r="M29">
-        <v>2252</v>
-      </c>
-      <c r="N29">
-        <v>1623</v>
-      </c>
-      <c r="O29">
-        <v>8657</v>
-      </c>
-      <c r="P29">
-        <v>6258</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+        <v>14915</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>9999</v>
       </c>
@@ -3635,46 +1646,22 @@
         <v>2031</v>
       </c>
       <c r="D30">
-        <v>131670</v>
+        <v>275196</v>
       </c>
       <c r="E30">
-        <v>143526</v>
+        <v>1.4</v>
       </c>
       <c r="F30">
-        <v>275196</v>
+        <v>5.9</v>
       </c>
       <c r="G30">
-        <v>47.8</v>
+        <v>3917</v>
       </c>
       <c r="H30">
-        <v>52.2</v>
-      </c>
-      <c r="I30">
-        <v>1.8</v>
-      </c>
-      <c r="J30">
-        <v>1.1</v>
-      </c>
-      <c r="K30">
-        <v>7.2</v>
-      </c>
-      <c r="L30">
-        <v>4.7</v>
-      </c>
-      <c r="M30">
-        <v>2319</v>
-      </c>
-      <c r="N30">
-        <v>1598</v>
-      </c>
-      <c r="O30">
-        <v>8895</v>
-      </c>
-      <c r="P30">
-        <v>6392</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>15287</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>9999</v>
       </c>
@@ -3685,46 +1672,22 @@
         <v>2032</v>
       </c>
       <c r="D31">
-        <v>134035</v>
+        <v>279119</v>
       </c>
       <c r="E31">
-        <v>145084</v>
+        <v>1.4</v>
       </c>
       <c r="F31">
-        <v>279119</v>
+        <v>5.9</v>
       </c>
       <c r="G31">
-        <v>48</v>
+        <v>3923</v>
       </c>
       <c r="H31">
-        <v>52</v>
-      </c>
-      <c r="I31">
-        <v>1.8</v>
-      </c>
-      <c r="J31">
-        <v>1.1</v>
-      </c>
-      <c r="K31">
-        <v>7.3</v>
-      </c>
-      <c r="L31">
-        <v>4.6</v>
-      </c>
-      <c r="M31">
-        <v>2365</v>
-      </c>
-      <c r="N31">
-        <v>1558</v>
-      </c>
-      <c r="O31">
-        <v>9121</v>
-      </c>
-      <c r="P31">
-        <v>6393</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+        <v>15514</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>9999</v>
       </c>
@@ -3735,46 +1698,22 @@
         <v>2033</v>
       </c>
       <c r="D32">
-        <v>136486</v>
+        <v>283056</v>
       </c>
       <c r="E32">
-        <v>146570</v>
+        <v>1.4</v>
       </c>
       <c r="F32">
-        <v>283056</v>
+        <v>5.9</v>
       </c>
       <c r="G32">
-        <v>48.2</v>
+        <v>3937</v>
       </c>
       <c r="H32">
-        <v>51.8</v>
-      </c>
-      <c r="I32">
-        <v>1.8</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>7.4</v>
-      </c>
-      <c r="L32">
-        <v>4.5</v>
-      </c>
-      <c r="M32">
-        <v>2451</v>
-      </c>
-      <c r="N32">
-        <v>1486</v>
-      </c>
-      <c r="O32">
-        <v>9387</v>
-      </c>
-      <c r="P32">
-        <v>6265</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+        <v>15652</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>9999</v>
       </c>
@@ -3785,46 +1724,22 @@
         <v>2034</v>
       </c>
       <c r="D33">
-        <v>138980</v>
+        <v>287023</v>
       </c>
       <c r="E33">
-        <v>148043</v>
+        <v>1.4</v>
       </c>
       <c r="F33">
-        <v>287023</v>
+        <v>5.8</v>
       </c>
       <c r="G33">
-        <v>48.4</v>
+        <v>3967</v>
       </c>
       <c r="H33">
-        <v>51.6</v>
-      </c>
-      <c r="I33">
-        <v>1.8</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>7.4</v>
-      </c>
-      <c r="L33">
-        <v>4.3</v>
-      </c>
-      <c r="M33">
-        <v>2494</v>
-      </c>
-      <c r="N33">
-        <v>1473</v>
-      </c>
-      <c r="O33">
-        <v>9629</v>
-      </c>
-      <c r="P33">
-        <v>6115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+        <v>15744</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>9999</v>
       </c>
@@ -3835,46 +1750,22 @@
         <v>2035</v>
       </c>
       <c r="D34">
-        <v>141482</v>
+        <v>291014</v>
       </c>
       <c r="E34">
-        <v>149532</v>
+        <v>1.4</v>
       </c>
       <c r="F34">
-        <v>291014</v>
+        <v>5.7</v>
       </c>
       <c r="G34">
-        <v>48.6</v>
+        <v>3991</v>
       </c>
       <c r="H34">
-        <v>51.4</v>
-      </c>
-      <c r="I34">
-        <v>1.8</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>7.5</v>
-      </c>
-      <c r="L34">
-        <v>4.2</v>
-      </c>
-      <c r="M34">
-        <v>2502</v>
-      </c>
-      <c r="N34">
-        <v>1489</v>
-      </c>
-      <c r="O34">
-        <v>9812</v>
-      </c>
-      <c r="P34">
-        <v>6006</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+        <v>15818</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>13120</v>
       </c>
@@ -3885,22 +1776,10 @@
         <v>2003</v>
       </c>
       <c r="D35">
-        <v>71557</v>
-      </c>
-      <c r="E35">
-        <v>88527</v>
-      </c>
-      <c r="F35">
         <v>160084</v>
       </c>
-      <c r="G35">
-        <v>44.7</v>
-      </c>
-      <c r="H35">
-        <v>55.3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>13120</v>
       </c>
@@ -3911,34 +1790,16 @@
         <v>2004</v>
       </c>
       <c r="D36">
-        <v>73194</v>
+        <v>163437</v>
       </c>
       <c r="E36">
-        <v>90243</v>
-      </c>
-      <c r="F36">
-        <v>163437</v>
+        <v>2.1</v>
       </c>
       <c r="G36">
-        <v>44.8</v>
-      </c>
-      <c r="H36">
-        <v>55.2</v>
-      </c>
-      <c r="I36">
-        <v>2.3</v>
-      </c>
-      <c r="J36">
-        <v>1.9</v>
-      </c>
-      <c r="M36">
-        <v>1637</v>
-      </c>
-      <c r="N36">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>13120</v>
       </c>
@@ -3949,34 +1810,16 @@
         <v>2005</v>
       </c>
       <c r="D37">
-        <v>74806</v>
+        <v>166677</v>
       </c>
       <c r="E37">
-        <v>91871</v>
-      </c>
-      <c r="F37">
-        <v>166677</v>
+        <v>2</v>
       </c>
       <c r="G37">
-        <v>44.9</v>
-      </c>
-      <c r="H37">
-        <v>55.1</v>
-      </c>
-      <c r="I37">
-        <v>2.2</v>
-      </c>
-      <c r="J37">
-        <v>1.8</v>
-      </c>
-      <c r="M37">
-        <v>1612</v>
-      </c>
-      <c r="N37">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>13120</v>
       </c>
@@ -3987,34 +1830,16 @@
         <v>2006</v>
       </c>
       <c r="D38">
-        <v>76350</v>
+        <v>169791</v>
       </c>
       <c r="E38">
-        <v>93441</v>
-      </c>
-      <c r="F38">
-        <v>169791</v>
+        <v>1.9</v>
       </c>
       <c r="G38">
-        <v>45</v>
-      </c>
-      <c r="H38">
-        <v>55</v>
-      </c>
-      <c r="I38">
-        <v>2.1</v>
-      </c>
-      <c r="J38">
-        <v>1.7</v>
-      </c>
-      <c r="M38">
-        <v>1544</v>
-      </c>
-      <c r="N38">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>13120</v>
       </c>
@@ -4025,46 +1850,22 @@
         <v>2007</v>
       </c>
       <c r="D39">
-        <v>77931</v>
+        <v>172951</v>
       </c>
       <c r="E39">
-        <v>95020</v>
+        <v>1.9</v>
       </c>
       <c r="F39">
-        <v>172951</v>
+        <v>8</v>
       </c>
       <c r="G39">
-        <v>45.1</v>
+        <v>3160</v>
       </c>
       <c r="H39">
-        <v>54.9</v>
-      </c>
-      <c r="I39">
-        <v>2.1</v>
-      </c>
-      <c r="J39">
-        <v>1.7</v>
-      </c>
-      <c r="K39">
-        <v>8.9</v>
-      </c>
-      <c r="L39">
-        <v>7.3</v>
-      </c>
-      <c r="M39">
-        <v>1581</v>
-      </c>
-      <c r="N39">
-        <v>1579</v>
-      </c>
-      <c r="O39">
-        <v>6374</v>
-      </c>
-      <c r="P39">
-        <v>6493</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+        <v>12867</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>13120</v>
       </c>
@@ -4075,46 +1876,22 @@
         <v>2008</v>
       </c>
       <c r="D40">
-        <v>79540</v>
+        <v>176180</v>
       </c>
       <c r="E40">
-        <v>96640</v>
+        <v>1.9</v>
       </c>
       <c r="F40">
-        <v>176180</v>
+        <v>7.8</v>
       </c>
       <c r="G40">
-        <v>45.1</v>
+        <v>3229</v>
       </c>
       <c r="H40">
-        <v>54.9</v>
-      </c>
-      <c r="I40">
-        <v>2.1</v>
-      </c>
-      <c r="J40">
-        <v>1.7</v>
-      </c>
-      <c r="K40">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="L40">
-        <v>7.1</v>
-      </c>
-      <c r="M40">
-        <v>1609</v>
-      </c>
-      <c r="N40">
-        <v>1620</v>
-      </c>
-      <c r="O40">
-        <v>6346</v>
-      </c>
-      <c r="P40">
-        <v>6397</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+        <v>12743</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>13120</v>
       </c>
@@ -4125,46 +1902,22 @@
         <v>2009</v>
       </c>
       <c r="D41">
-        <v>81206</v>
+        <v>179535</v>
       </c>
       <c r="E41">
-        <v>98329</v>
+        <v>1.9</v>
       </c>
       <c r="F41">
-        <v>179535</v>
+        <v>7.7</v>
       </c>
       <c r="G41">
-        <v>45.2</v>
+        <v>3355</v>
       </c>
       <c r="H41">
-        <v>54.8</v>
-      </c>
-      <c r="I41">
-        <v>2.1</v>
-      </c>
-      <c r="J41">
-        <v>1.7</v>
-      </c>
-      <c r="K41">
-        <v>8.6</v>
-      </c>
-      <c r="L41">
-        <v>7</v>
-      </c>
-      <c r="M41">
-        <v>1666</v>
-      </c>
-      <c r="N41">
-        <v>1689</v>
-      </c>
-      <c r="O41">
-        <v>6400</v>
-      </c>
-      <c r="P41">
-        <v>6458</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+        <v>12858</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>13120</v>
       </c>
@@ -4175,46 +1928,22 @@
         <v>2010</v>
       </c>
       <c r="D42">
-        <v>82856</v>
+        <v>182863</v>
       </c>
       <c r="E42">
-        <v>100007</v>
+        <v>1.9</v>
       </c>
       <c r="F42">
-        <v>182863</v>
+        <v>7.7</v>
       </c>
       <c r="G42">
-        <v>45.3</v>
+        <v>3328</v>
       </c>
       <c r="H42">
-        <v>54.7</v>
-      </c>
-      <c r="I42">
-        <v>2</v>
-      </c>
-      <c r="J42">
-        <v>1.7</v>
-      </c>
-      <c r="K42">
-        <v>8.5</v>
-      </c>
-      <c r="L42">
-        <v>7</v>
-      </c>
-      <c r="M42">
-        <v>1650</v>
-      </c>
-      <c r="N42">
-        <v>1678</v>
-      </c>
-      <c r="O42">
-        <v>6506</v>
-      </c>
-      <c r="P42">
-        <v>6566</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+        <v>13072</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>13120</v>
       </c>
@@ -4225,46 +1954,22 @@
         <v>2011</v>
       </c>
       <c r="D43">
-        <v>84513</v>
+        <v>186171</v>
       </c>
       <c r="E43">
-        <v>101658</v>
+        <v>1.8</v>
       </c>
       <c r="F43">
-        <v>186171</v>
+        <v>7.6</v>
       </c>
       <c r="G43">
-        <v>45.4</v>
+        <v>3308</v>
       </c>
       <c r="H43">
-        <v>54.6</v>
-      </c>
-      <c r="I43">
-        <v>2</v>
-      </c>
-      <c r="J43">
-        <v>1.7</v>
-      </c>
-      <c r="K43">
-        <v>8.4</v>
-      </c>
-      <c r="L43">
-        <v>7</v>
-      </c>
-      <c r="M43">
-        <v>1657</v>
-      </c>
-      <c r="N43">
-        <v>1651</v>
-      </c>
-      <c r="O43">
-        <v>6582</v>
-      </c>
-      <c r="P43">
-        <v>6638</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
+        <v>13220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>13120</v>
       </c>
@@ -4275,46 +1980,22 @@
         <v>2012</v>
       </c>
       <c r="D44">
-        <v>86266</v>
+        <v>189703</v>
       </c>
       <c r="E44">
-        <v>103437</v>
+        <v>1.9</v>
       </c>
       <c r="F44">
-        <v>189703</v>
+        <v>7.7</v>
       </c>
       <c r="G44">
-        <v>45.5</v>
+        <v>3532</v>
       </c>
       <c r="H44">
-        <v>54.5</v>
-      </c>
-      <c r="I44">
-        <v>2.1</v>
-      </c>
-      <c r="J44">
-        <v>1.7</v>
-      </c>
-      <c r="K44">
-        <v>8.5</v>
-      </c>
-      <c r="L44">
-        <v>7</v>
-      </c>
-      <c r="M44">
-        <v>1753</v>
-      </c>
-      <c r="N44">
-        <v>1779</v>
-      </c>
-      <c r="O44">
-        <v>6726</v>
-      </c>
-      <c r="P44">
-        <v>6797</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+        <v>13523</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>13120</v>
       </c>
@@ -4325,46 +2006,22 @@
         <v>2013</v>
       </c>
       <c r="D45">
-        <v>88024</v>
+        <v>193314</v>
       </c>
       <c r="E45">
-        <v>105290</v>
+        <v>1.9</v>
       </c>
       <c r="F45">
-        <v>193314</v>
+        <v>7.7</v>
       </c>
       <c r="G45">
-        <v>45.5</v>
+        <v>3611</v>
       </c>
       <c r="H45">
-        <v>54.5</v>
-      </c>
-      <c r="I45">
-        <v>2</v>
-      </c>
-      <c r="J45">
-        <v>1.8</v>
-      </c>
-      <c r="K45">
-        <v>8.4</v>
-      </c>
-      <c r="L45">
-        <v>7.1</v>
-      </c>
-      <c r="M45">
-        <v>1758</v>
-      </c>
-      <c r="N45">
-        <v>1853</v>
-      </c>
-      <c r="O45">
-        <v>6818</v>
-      </c>
-      <c r="P45">
-        <v>6961</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+        <v>13779</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>13120</v>
       </c>
@@ -4375,46 +2032,22 @@
         <v>2014</v>
       </c>
       <c r="D46">
-        <v>89649</v>
+        <v>196537</v>
       </c>
       <c r="E46">
-        <v>106888</v>
+        <v>1.7</v>
       </c>
       <c r="F46">
-        <v>196537</v>
+        <v>7.5</v>
       </c>
       <c r="G46">
-        <v>45.6</v>
+        <v>3223</v>
       </c>
       <c r="H46">
-        <v>54.4</v>
-      </c>
-      <c r="I46">
-        <v>1.8</v>
-      </c>
-      <c r="J46">
-        <v>1.5</v>
-      </c>
-      <c r="K46">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L46">
-        <v>6.9</v>
-      </c>
-      <c r="M46">
-        <v>1625</v>
-      </c>
-      <c r="N46">
-        <v>1598</v>
-      </c>
-      <c r="O46">
-        <v>6793</v>
-      </c>
-      <c r="P46">
-        <v>6881</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+        <v>13674</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>13120</v>
       </c>
@@ -4425,46 +2058,22 @@
         <v>2015</v>
       </c>
       <c r="D47">
-        <v>91356</v>
+        <v>199954</v>
       </c>
       <c r="E47">
-        <v>108598</v>
+        <v>1.7</v>
       </c>
       <c r="F47">
-        <v>199954</v>
+        <v>7.4</v>
       </c>
       <c r="G47">
-        <v>45.7</v>
+        <v>3417</v>
       </c>
       <c r="H47">
-        <v>54.3</v>
-      </c>
-      <c r="I47">
-        <v>1.9</v>
-      </c>
-      <c r="J47">
-        <v>1.6</v>
-      </c>
-      <c r="K47">
-        <v>8.1</v>
-      </c>
-      <c r="L47">
-        <v>6.8</v>
-      </c>
-      <c r="M47">
-        <v>1707</v>
-      </c>
-      <c r="N47">
-        <v>1710</v>
-      </c>
-      <c r="O47">
-        <v>6843</v>
-      </c>
-      <c r="P47">
-        <v>6940</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
+        <v>13783</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>13120</v>
       </c>
@@ -4475,46 +2084,22 @@
         <v>2016</v>
       </c>
       <c r="D48">
-        <v>93216</v>
+        <v>203745</v>
       </c>
       <c r="E48">
-        <v>110529</v>
+        <v>1.9</v>
       </c>
       <c r="F48">
-        <v>203745</v>
+        <v>7.4</v>
       </c>
       <c r="G48">
-        <v>45.8</v>
+        <v>3791</v>
       </c>
       <c r="H48">
-        <v>54.2</v>
-      </c>
-      <c r="I48">
-        <v>2</v>
-      </c>
-      <c r="J48">
-        <v>1.8</v>
-      </c>
-      <c r="K48">
-        <v>8.1</v>
-      </c>
-      <c r="L48">
-        <v>6.9</v>
-      </c>
-      <c r="M48">
-        <v>1860</v>
-      </c>
-      <c r="N48">
-        <v>1931</v>
-      </c>
-      <c r="O48">
-        <v>6950</v>
-      </c>
-      <c r="P48">
-        <v>7092</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
+        <v>14042</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>13120</v>
       </c>
@@ -4525,46 +2110,22 @@
         <v>2017</v>
       </c>
       <c r="D49">
-        <v>95293</v>
+        <v>208048</v>
       </c>
       <c r="E49">
-        <v>112755</v>
+        <v>2.1</v>
       </c>
       <c r="F49">
-        <v>208048</v>
+        <v>7.6</v>
       </c>
       <c r="G49">
-        <v>45.8</v>
+        <v>4303</v>
       </c>
       <c r="H49">
-        <v>54.2</v>
-      </c>
-      <c r="I49">
-        <v>2.2</v>
-      </c>
-      <c r="J49">
-        <v>2</v>
-      </c>
-      <c r="K49">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="L49">
-        <v>7.1</v>
-      </c>
-      <c r="M49">
-        <v>2077</v>
-      </c>
-      <c r="N49">
-        <v>2226</v>
-      </c>
-      <c r="O49">
-        <v>7269</v>
-      </c>
-      <c r="P49">
-        <v>7465</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
+        <v>14734</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>13120</v>
       </c>
@@ -4575,46 +2136,22 @@
         <v>2018</v>
       </c>
       <c r="D50">
-        <v>99320</v>
+        <v>216267</v>
       </c>
       <c r="E50">
-        <v>116947</v>
+        <v>4</v>
       </c>
       <c r="F50">
-        <v>216267</v>
+        <v>10</v>
       </c>
       <c r="G50">
-        <v>45.9</v>
+        <v>8219</v>
       </c>
       <c r="H50">
-        <v>54.1</v>
-      </c>
-      <c r="I50">
-        <v>4.2</v>
-      </c>
-      <c r="J50">
-        <v>3.7</v>
-      </c>
-      <c r="K50">
-        <v>10.8</v>
-      </c>
-      <c r="L50">
-        <v>9.4</v>
-      </c>
-      <c r="M50">
-        <v>4027</v>
-      </c>
-      <c r="N50">
-        <v>4192</v>
-      </c>
-      <c r="O50">
-        <v>9671</v>
-      </c>
-      <c r="P50">
-        <v>10059</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
+        <v>19730</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>13120</v>
       </c>
@@ -4625,46 +2162,22 @@
         <v>2019</v>
       </c>
       <c r="D51">
-        <v>103975</v>
+        <v>225484</v>
       </c>
       <c r="E51">
-        <v>121509</v>
+        <v>4.3</v>
       </c>
       <c r="F51">
-        <v>225484</v>
+        <v>12.8</v>
       </c>
       <c r="G51">
-        <v>46.1</v>
+        <v>9217</v>
       </c>
       <c r="H51">
-        <v>53.9</v>
-      </c>
-      <c r="I51">
-        <v>4.7</v>
-      </c>
-      <c r="J51">
-        <v>3.9</v>
-      </c>
-      <c r="K51">
-        <v>13.8</v>
-      </c>
-      <c r="L51">
-        <v>11.9</v>
-      </c>
-      <c r="M51">
-        <v>4655</v>
-      </c>
-      <c r="N51">
-        <v>4562</v>
-      </c>
-      <c r="O51">
-        <v>12619</v>
-      </c>
-      <c r="P51">
-        <v>12911</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
+        <v>25530</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>13120</v>
       </c>
@@ -4675,46 +2188,22 @@
         <v>2020</v>
       </c>
       <c r="D52">
-        <v>108150</v>
+        <v>234254</v>
       </c>
       <c r="E52">
-        <v>126104</v>
+        <v>3.9</v>
       </c>
       <c r="F52">
-        <v>234254</v>
+        <v>15</v>
       </c>
       <c r="G52">
-        <v>46.2</v>
+        <v>8770</v>
       </c>
       <c r="H52">
-        <v>53.8</v>
-      </c>
-      <c r="I52">
-        <v>4</v>
-      </c>
-      <c r="J52">
-        <v>3.8</v>
-      </c>
-      <c r="K52">
-        <v>16</v>
-      </c>
-      <c r="L52">
-        <v>14.1</v>
-      </c>
-      <c r="M52">
-        <v>4175</v>
-      </c>
-      <c r="N52">
-        <v>4595</v>
-      </c>
-      <c r="O52">
-        <v>14934</v>
-      </c>
-      <c r="P52">
-        <v>15575</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
+        <v>30509</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>13120</v>
       </c>
@@ -4725,46 +2214,22 @@
         <v>2021</v>
       </c>
       <c r="D53">
-        <v>110814</v>
+        <v>239409</v>
       </c>
       <c r="E53">
-        <v>128595</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F53">
-        <v>239409</v>
+        <v>15.1</v>
       </c>
       <c r="G53">
-        <v>46.3</v>
+        <v>5155</v>
       </c>
       <c r="H53">
-        <v>53.7</v>
-      </c>
-      <c r="I53">
-        <v>2.5</v>
-      </c>
-      <c r="J53">
-        <v>2</v>
-      </c>
-      <c r="K53">
-        <v>16.3</v>
-      </c>
-      <c r="L53">
-        <v>14</v>
-      </c>
-      <c r="M53">
-        <v>2664</v>
-      </c>
-      <c r="N53">
-        <v>2491</v>
-      </c>
-      <c r="O53">
-        <v>15521</v>
-      </c>
-      <c r="P53">
-        <v>15840</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
+        <v>31361</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>13120</v>
       </c>
@@ -4775,46 +2240,22 @@
         <v>2022</v>
       </c>
       <c r="D54">
-        <v>112820</v>
+        <v>242951</v>
       </c>
       <c r="E54">
-        <v>130131</v>
+        <v>1.5</v>
       </c>
       <c r="F54">
-        <v>242951</v>
+        <v>12.3</v>
       </c>
       <c r="G54">
-        <v>46.4</v>
+        <v>3542</v>
       </c>
       <c r="H54">
-        <v>53.6</v>
-      </c>
-      <c r="I54">
-        <v>1.8</v>
-      </c>
-      <c r="J54">
-        <v>1.2</v>
-      </c>
-      <c r="K54">
-        <v>13.6</v>
-      </c>
-      <c r="L54">
-        <v>11.3</v>
-      </c>
-      <c r="M54">
-        <v>2006</v>
-      </c>
-      <c r="N54">
-        <v>1536</v>
-      </c>
-      <c r="O54">
-        <v>13500</v>
-      </c>
-      <c r="P54">
-        <v>13184</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
+        <v>26684</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>13120</v>
       </c>
@@ -4825,46 +2266,22 @@
         <v>2023</v>
       </c>
       <c r="D55">
-        <v>114737</v>
+        <v>246248</v>
       </c>
       <c r="E55">
-        <v>131511</v>
+        <v>1.4</v>
       </c>
       <c r="F55">
-        <v>246248</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G55">
-        <v>46.6</v>
+        <v>3297</v>
       </c>
       <c r="H55">
-        <v>53.4</v>
-      </c>
-      <c r="I55">
-        <v>1.7</v>
-      </c>
-      <c r="J55">
-        <v>1.1</v>
-      </c>
-      <c r="K55">
-        <v>10.4</v>
-      </c>
-      <c r="L55">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="M55">
-        <v>1917</v>
-      </c>
-      <c r="N55">
-        <v>1380</v>
-      </c>
-      <c r="O55">
-        <v>10762</v>
-      </c>
-      <c r="P55">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
+        <v>20764</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>13120</v>
       </c>
@@ -4875,46 +2292,22 @@
         <v>2024</v>
       </c>
       <c r="D56">
-        <v>116688</v>
+        <v>249575</v>
       </c>
       <c r="E56">
-        <v>132887</v>
+        <v>1.4</v>
       </c>
       <c r="F56">
-        <v>249575</v>
+        <v>6.5</v>
       </c>
       <c r="G56">
-        <v>46.8</v>
+        <v>3327</v>
       </c>
       <c r="H56">
-        <v>53.2</v>
-      </c>
-      <c r="I56">
-        <v>1.7</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56">
-        <v>7.9</v>
-      </c>
-      <c r="L56">
-        <v>5.4</v>
-      </c>
-      <c r="M56">
-        <v>1951</v>
-      </c>
-      <c r="N56">
-        <v>1376</v>
-      </c>
-      <c r="O56">
-        <v>8538</v>
-      </c>
-      <c r="P56">
-        <v>6783</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
+        <v>15321</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>13120</v>
       </c>
@@ -4925,46 +2318,22 @@
         <v>2025</v>
       </c>
       <c r="D57">
-        <v>118668</v>
+        <v>252929</v>
       </c>
       <c r="E57">
-        <v>134261</v>
+        <v>1.3</v>
       </c>
       <c r="F57">
-        <v>252929</v>
+        <v>5.6</v>
       </c>
       <c r="G57">
-        <v>46.9</v>
+        <v>3354</v>
       </c>
       <c r="H57">
-        <v>53.1</v>
-      </c>
-      <c r="I57">
-        <v>1.7</v>
-      </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57">
-        <v>7.1</v>
-      </c>
-      <c r="L57">
-        <v>4.4</v>
-      </c>
-      <c r="M57">
-        <v>1980</v>
-      </c>
-      <c r="N57">
-        <v>1374</v>
-      </c>
-      <c r="O57">
-        <v>7854</v>
-      </c>
-      <c r="P57">
-        <v>5666</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
+        <v>13520</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>13120</v>
       </c>
@@ -4975,46 +2344,22 @@
         <v>2026</v>
       </c>
       <c r="D58">
-        <v>120694</v>
+        <v>256364</v>
       </c>
       <c r="E58">
-        <v>135670</v>
+        <v>1.4</v>
       </c>
       <c r="F58">
-        <v>256364</v>
+        <v>5.5</v>
       </c>
       <c r="G58">
-        <v>47.1</v>
+        <v>3435</v>
       </c>
       <c r="H58">
-        <v>52.9</v>
-      </c>
-      <c r="I58">
-        <v>1.7</v>
-      </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58">
-        <v>7</v>
-      </c>
-      <c r="L58">
-        <v>4.3</v>
-      </c>
-      <c r="M58">
-        <v>2026</v>
-      </c>
-      <c r="N58">
-        <v>1409</v>
-      </c>
-      <c r="O58">
-        <v>7874</v>
-      </c>
-      <c r="P58">
-        <v>5539</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
+        <v>13413</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>13120</v>
       </c>
@@ -5025,46 +2370,22 @@
         <v>2027</v>
       </c>
       <c r="D59">
-        <v>122775</v>
+        <v>259909</v>
       </c>
       <c r="E59">
-        <v>137134</v>
+        <v>1.4</v>
       </c>
       <c r="F59">
-        <v>259909</v>
+        <v>5.5</v>
       </c>
       <c r="G59">
-        <v>47.2</v>
+        <v>3545</v>
       </c>
       <c r="H59">
-        <v>52.8</v>
-      </c>
-      <c r="I59">
-        <v>1.7</v>
-      </c>
-      <c r="J59">
-        <v>1.1</v>
-      </c>
-      <c r="K59">
-        <v>7</v>
-      </c>
-      <c r="L59">
-        <v>4.3</v>
-      </c>
-      <c r="M59">
-        <v>2081</v>
-      </c>
-      <c r="N59">
-        <v>1464</v>
-      </c>
-      <c r="O59">
-        <v>8038</v>
-      </c>
-      <c r="P59">
-        <v>5623</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
+        <v>13661</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>13120</v>
       </c>
@@ -5075,46 +2396,22 @@
         <v>2028</v>
       </c>
       <c r="D60">
-        <v>124914</v>
+        <v>263605</v>
       </c>
       <c r="E60">
-        <v>138691</v>
+        <v>1.4</v>
       </c>
       <c r="F60">
-        <v>263605</v>
+        <v>5.6</v>
       </c>
       <c r="G60">
-        <v>47.4</v>
+        <v>3696</v>
       </c>
       <c r="H60">
-        <v>52.6</v>
-      </c>
-      <c r="I60">
-        <v>1.7</v>
-      </c>
-      <c r="J60">
-        <v>1.1</v>
-      </c>
-      <c r="K60">
-        <v>7</v>
-      </c>
-      <c r="L60">
-        <v>4.4</v>
-      </c>
-      <c r="M60">
-        <v>2139</v>
-      </c>
-      <c r="N60">
-        <v>1557</v>
-      </c>
-      <c r="O60">
-        <v>8226</v>
-      </c>
-      <c r="P60">
-        <v>5804</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
+        <v>14030</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>13120</v>
       </c>
@@ -5125,46 +2422,22 @@
         <v>2029</v>
       </c>
       <c r="D61">
-        <v>127099</v>
+        <v>267404</v>
       </c>
       <c r="E61">
-        <v>140305</v>
+        <v>1.4</v>
       </c>
       <c r="F61">
-        <v>267404</v>
+        <v>5.7</v>
       </c>
       <c r="G61">
-        <v>47.5</v>
+        <v>3799</v>
       </c>
       <c r="H61">
-        <v>52.5</v>
-      </c>
-      <c r="I61">
-        <v>1.7</v>
-      </c>
-      <c r="J61">
-        <v>1.2</v>
-      </c>
-      <c r="K61">
-        <v>7.1</v>
-      </c>
-      <c r="L61">
-        <v>4.5</v>
-      </c>
-      <c r="M61">
-        <v>2185</v>
-      </c>
-      <c r="N61">
-        <v>1614</v>
-      </c>
-      <c r="O61">
-        <v>8431</v>
-      </c>
-      <c r="P61">
-        <v>6044</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
+        <v>14475</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>13120</v>
       </c>
@@ -5175,46 +2448,22 @@
         <v>2030</v>
       </c>
       <c r="D62">
-        <v>129351</v>
+        <v>271279</v>
       </c>
       <c r="E62">
-        <v>141928</v>
+        <v>1.4</v>
       </c>
       <c r="F62">
-        <v>271279</v>
+        <v>5.8</v>
       </c>
       <c r="G62">
-        <v>47.7</v>
+        <v>3875</v>
       </c>
       <c r="H62">
-        <v>52.3</v>
-      </c>
-      <c r="I62">
-        <v>1.8</v>
-      </c>
-      <c r="J62">
-        <v>1.2</v>
-      </c>
-      <c r="K62">
-        <v>7.2</v>
-      </c>
-      <c r="L62">
-        <v>4.6</v>
-      </c>
-      <c r="M62">
-        <v>2252</v>
-      </c>
-      <c r="N62">
-        <v>1623</v>
-      </c>
-      <c r="O62">
-        <v>8657</v>
-      </c>
-      <c r="P62">
-        <v>6258</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
+        <v>14915</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>13120</v>
       </c>
@@ -5225,46 +2474,22 @@
         <v>2031</v>
       </c>
       <c r="D63">
-        <v>131670</v>
+        <v>275196</v>
       </c>
       <c r="E63">
-        <v>143526</v>
+        <v>1.4</v>
       </c>
       <c r="F63">
-        <v>275196</v>
+        <v>5.9</v>
       </c>
       <c r="G63">
-        <v>47.8</v>
+        <v>3917</v>
       </c>
       <c r="H63">
-        <v>52.2</v>
-      </c>
-      <c r="I63">
-        <v>1.8</v>
-      </c>
-      <c r="J63">
-        <v>1.1</v>
-      </c>
-      <c r="K63">
-        <v>7.2</v>
-      </c>
-      <c r="L63">
-        <v>4.7</v>
-      </c>
-      <c r="M63">
-        <v>2319</v>
-      </c>
-      <c r="N63">
-        <v>1598</v>
-      </c>
-      <c r="O63">
-        <v>8895</v>
-      </c>
-      <c r="P63">
-        <v>6392</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
+        <v>15287</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>13120</v>
       </c>
@@ -5275,46 +2500,22 @@
         <v>2032</v>
       </c>
       <c r="D64">
-        <v>134035</v>
+        <v>279119</v>
       </c>
       <c r="E64">
-        <v>145084</v>
+        <v>1.4</v>
       </c>
       <c r="F64">
-        <v>279119</v>
+        <v>5.9</v>
       </c>
       <c r="G64">
-        <v>48</v>
+        <v>3923</v>
       </c>
       <c r="H64">
-        <v>52</v>
-      </c>
-      <c r="I64">
-        <v>1.8</v>
-      </c>
-      <c r="J64">
-        <v>1.1</v>
-      </c>
-      <c r="K64">
-        <v>7.3</v>
-      </c>
-      <c r="L64">
-        <v>4.6</v>
-      </c>
-      <c r="M64">
-        <v>2365</v>
-      </c>
-      <c r="N64">
-        <v>1558</v>
-      </c>
-      <c r="O64">
-        <v>9121</v>
-      </c>
-      <c r="P64">
-        <v>6393</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
+        <v>15514</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>13120</v>
       </c>
@@ -5325,46 +2526,22 @@
         <v>2033</v>
       </c>
       <c r="D65">
-        <v>136486</v>
+        <v>283056</v>
       </c>
       <c r="E65">
-        <v>146570</v>
+        <v>1.4</v>
       </c>
       <c r="F65">
-        <v>283056</v>
+        <v>5.9</v>
       </c>
       <c r="G65">
-        <v>48.2</v>
+        <v>3937</v>
       </c>
       <c r="H65">
-        <v>51.8</v>
-      </c>
-      <c r="I65">
-        <v>1.8</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65">
-        <v>7.4</v>
-      </c>
-      <c r="L65">
-        <v>4.5</v>
-      </c>
-      <c r="M65">
-        <v>2451</v>
-      </c>
-      <c r="N65">
-        <v>1486</v>
-      </c>
-      <c r="O65">
-        <v>9387</v>
-      </c>
-      <c r="P65">
-        <v>6265</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
+        <v>15652</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>13120</v>
       </c>
@@ -5375,46 +2552,22 @@
         <v>2034</v>
       </c>
       <c r="D66">
-        <v>138980</v>
+        <v>287023</v>
       </c>
       <c r="E66">
-        <v>148043</v>
+        <v>1.4</v>
       </c>
       <c r="F66">
-        <v>287023</v>
+        <v>5.8</v>
       </c>
       <c r="G66">
-        <v>48.4</v>
+        <v>3967</v>
       </c>
       <c r="H66">
-        <v>51.6</v>
-      </c>
-      <c r="I66">
-        <v>1.8</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66">
-        <v>7.4</v>
-      </c>
-      <c r="L66">
-        <v>4.3</v>
-      </c>
-      <c r="M66">
-        <v>2494</v>
-      </c>
-      <c r="N66">
-        <v>1473</v>
-      </c>
-      <c r="O66">
-        <v>9629</v>
-      </c>
-      <c r="P66">
-        <v>6115</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
+        <v>15744</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>13120</v>
       </c>
@@ -5425,122 +2578,3362 @@
         <v>2035</v>
       </c>
       <c r="D67">
-        <v>141482</v>
+        <v>291014</v>
       </c>
       <c r="E67">
-        <v>149532</v>
+        <v>1.4</v>
       </c>
       <c r="F67">
-        <v>291014</v>
+        <v>5.7</v>
       </c>
       <c r="G67">
-        <v>48.6</v>
+        <v>3991</v>
       </c>
       <c r="H67">
-        <v>51.4</v>
-      </c>
-      <c r="I67">
-        <v>1.8</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67">
-        <v>7.5</v>
-      </c>
-      <c r="L67">
-        <v>4.2</v>
-      </c>
-      <c r="M67">
-        <v>2502</v>
-      </c>
-      <c r="N67">
-        <v>1489</v>
-      </c>
-      <c r="O67">
-        <v>9812</v>
-      </c>
-      <c r="P67">
-        <v>6006</v>
+        <v>15818</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K1" location="INICIO!A1" display="INICIO" xr:uid="{F7851D45-3F3C-4FA4-A301-B18A3CF2DB56}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>9999</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>2003</v>
+      </c>
+      <c r="D2">
+        <v>71557</v>
+      </c>
+      <c r="E2">
+        <v>88527</v>
+      </c>
+      <c r="F2">
+        <v>160084</v>
+      </c>
+      <c r="G2">
+        <v>44.7</v>
+      </c>
+      <c r="H2">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>9999</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2004</v>
+      </c>
+      <c r="D3">
+        <v>73194</v>
+      </c>
+      <c r="E3">
+        <v>90243</v>
+      </c>
+      <c r="F3">
+        <v>163437</v>
+      </c>
+      <c r="G3">
+        <v>44.8</v>
+      </c>
+      <c r="H3">
+        <v>55.2</v>
+      </c>
+      <c r="I3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J3">
+        <v>1.9</v>
+      </c>
+      <c r="M3">
+        <v>1637</v>
+      </c>
+      <c r="N3">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>9999</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2005</v>
+      </c>
+      <c r="D4">
+        <v>74806</v>
+      </c>
+      <c r="E4">
+        <v>91871</v>
+      </c>
+      <c r="F4">
+        <v>166677</v>
+      </c>
+      <c r="G4">
+        <v>44.9</v>
+      </c>
+      <c r="H4">
+        <v>55.1</v>
+      </c>
+      <c r="I4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J4">
+        <v>1.8</v>
+      </c>
+      <c r="M4">
+        <v>1612</v>
+      </c>
+      <c r="N4">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>9999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>2006</v>
+      </c>
+      <c r="D5">
+        <v>76350</v>
+      </c>
+      <c r="E5">
+        <v>93441</v>
+      </c>
+      <c r="F5">
+        <v>169791</v>
+      </c>
+      <c r="G5">
+        <v>45</v>
+      </c>
+      <c r="H5">
+        <v>55</v>
+      </c>
+      <c r="I5">
+        <v>2.1</v>
+      </c>
+      <c r="J5">
+        <v>1.7</v>
+      </c>
+      <c r="M5">
+        <v>1544</v>
+      </c>
+      <c r="N5">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>9999</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>2007</v>
+      </c>
+      <c r="D6">
+        <v>77931</v>
+      </c>
+      <c r="E6">
+        <v>95020</v>
+      </c>
+      <c r="F6">
+        <v>172951</v>
+      </c>
+      <c r="G6">
+        <v>45.1</v>
+      </c>
+      <c r="H6">
+        <v>54.9</v>
+      </c>
+      <c r="I6">
+        <v>2.1</v>
+      </c>
+      <c r="J6">
+        <v>1.7</v>
+      </c>
+      <c r="K6">
+        <v>8.9</v>
+      </c>
+      <c r="L6">
+        <v>7.3</v>
+      </c>
+      <c r="M6">
+        <v>1581</v>
+      </c>
+      <c r="N6">
+        <v>1579</v>
+      </c>
+      <c r="O6">
+        <v>6374</v>
+      </c>
+      <c r="P6">
+        <v>6493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>9999</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>2008</v>
+      </c>
+      <c r="D7">
+        <v>79540</v>
+      </c>
+      <c r="E7">
+        <v>96640</v>
+      </c>
+      <c r="F7">
+        <v>176180</v>
+      </c>
+      <c r="G7">
+        <v>45.1</v>
+      </c>
+      <c r="H7">
+        <v>54.9</v>
+      </c>
+      <c r="I7">
+        <v>2.1</v>
+      </c>
+      <c r="J7">
+        <v>1.7</v>
+      </c>
+      <c r="K7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L7">
+        <v>7.1</v>
+      </c>
+      <c r="M7">
+        <v>1609</v>
+      </c>
+      <c r="N7">
+        <v>1620</v>
+      </c>
+      <c r="O7">
+        <v>6346</v>
+      </c>
+      <c r="P7">
+        <v>6397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>9999</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>2009</v>
+      </c>
+      <c r="D8">
+        <v>81206</v>
+      </c>
+      <c r="E8">
+        <v>98329</v>
+      </c>
+      <c r="F8">
+        <v>179535</v>
+      </c>
+      <c r="G8">
+        <v>45.2</v>
+      </c>
+      <c r="H8">
+        <v>54.8</v>
+      </c>
+      <c r="I8">
+        <v>2.1</v>
+      </c>
+      <c r="J8">
+        <v>1.7</v>
+      </c>
+      <c r="K8">
+        <v>8.6</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>1666</v>
+      </c>
+      <c r="N8">
+        <v>1689</v>
+      </c>
+      <c r="O8">
+        <v>6400</v>
+      </c>
+      <c r="P8">
+        <v>6458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9999</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>2010</v>
+      </c>
+      <c r="D9">
+        <v>82856</v>
+      </c>
+      <c r="E9">
+        <v>100007</v>
+      </c>
+      <c r="F9">
+        <v>182863</v>
+      </c>
+      <c r="G9">
+        <v>45.3</v>
+      </c>
+      <c r="H9">
+        <v>54.7</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>1.7</v>
+      </c>
+      <c r="K9">
+        <v>8.5</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>1650</v>
+      </c>
+      <c r="N9">
+        <v>1678</v>
+      </c>
+      <c r="O9">
+        <v>6506</v>
+      </c>
+      <c r="P9">
+        <v>6566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9999</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>2011</v>
+      </c>
+      <c r="D10">
+        <v>84513</v>
+      </c>
+      <c r="E10">
+        <v>101658</v>
+      </c>
+      <c r="F10">
+        <v>186171</v>
+      </c>
+      <c r="G10">
+        <v>45.4</v>
+      </c>
+      <c r="H10">
+        <v>54.6</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>1.7</v>
+      </c>
+      <c r="K10">
+        <v>8.4</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>1657</v>
+      </c>
+      <c r="N10">
+        <v>1651</v>
+      </c>
+      <c r="O10">
+        <v>6582</v>
+      </c>
+      <c r="P10">
+        <v>6638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9999</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>2012</v>
+      </c>
+      <c r="D11">
+        <v>86266</v>
+      </c>
+      <c r="E11">
+        <v>103437</v>
+      </c>
+      <c r="F11">
+        <v>189703</v>
+      </c>
+      <c r="G11">
+        <v>45.5</v>
+      </c>
+      <c r="H11">
+        <v>54.5</v>
+      </c>
+      <c r="I11">
+        <v>2.1</v>
+      </c>
+      <c r="J11">
+        <v>1.7</v>
+      </c>
+      <c r="K11">
+        <v>8.5</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>1753</v>
+      </c>
+      <c r="N11">
+        <v>1779</v>
+      </c>
+      <c r="O11">
+        <v>6726</v>
+      </c>
+      <c r="P11">
+        <v>6797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9999</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>2013</v>
+      </c>
+      <c r="D12">
+        <v>88024</v>
+      </c>
+      <c r="E12">
+        <v>105290</v>
+      </c>
+      <c r="F12">
+        <v>193314</v>
+      </c>
+      <c r="G12">
+        <v>45.5</v>
+      </c>
+      <c r="H12">
+        <v>54.5</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>1.8</v>
+      </c>
+      <c r="K12">
+        <v>8.4</v>
+      </c>
+      <c r="L12">
+        <v>7.1</v>
+      </c>
+      <c r="M12">
+        <v>1758</v>
+      </c>
+      <c r="N12">
+        <v>1853</v>
+      </c>
+      <c r="O12">
+        <v>6818</v>
+      </c>
+      <c r="P12">
+        <v>6961</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>9999</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>2014</v>
+      </c>
+      <c r="D13">
+        <v>89649</v>
+      </c>
+      <c r="E13">
+        <v>106888</v>
+      </c>
+      <c r="F13">
+        <v>196537</v>
+      </c>
+      <c r="G13">
+        <v>45.6</v>
+      </c>
+      <c r="H13">
+        <v>54.4</v>
+      </c>
+      <c r="I13">
+        <v>1.8</v>
+      </c>
+      <c r="J13">
+        <v>1.5</v>
+      </c>
+      <c r="K13">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L13">
+        <v>6.9</v>
+      </c>
+      <c r="M13">
+        <v>1625</v>
+      </c>
+      <c r="N13">
+        <v>1598</v>
+      </c>
+      <c r="O13">
+        <v>6793</v>
+      </c>
+      <c r="P13">
+        <v>6881</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9999</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>2015</v>
+      </c>
+      <c r="D14">
+        <v>91356</v>
+      </c>
+      <c r="E14">
+        <v>108598</v>
+      </c>
+      <c r="F14">
+        <v>199954</v>
+      </c>
+      <c r="G14">
+        <v>45.7</v>
+      </c>
+      <c r="H14">
+        <v>54.3</v>
+      </c>
+      <c r="I14">
+        <v>1.9</v>
+      </c>
+      <c r="J14">
+        <v>1.6</v>
+      </c>
+      <c r="K14">
+        <v>8.1</v>
+      </c>
+      <c r="L14">
+        <v>6.8</v>
+      </c>
+      <c r="M14">
+        <v>1707</v>
+      </c>
+      <c r="N14">
+        <v>1710</v>
+      </c>
+      <c r="O14">
+        <v>6843</v>
+      </c>
+      <c r="P14">
+        <v>6940</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>9999</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>2016</v>
+      </c>
+      <c r="D15">
+        <v>93216</v>
+      </c>
+      <c r="E15">
+        <v>110529</v>
+      </c>
+      <c r="F15">
+        <v>203745</v>
+      </c>
+      <c r="G15">
+        <v>45.8</v>
+      </c>
+      <c r="H15">
+        <v>54.2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>1.8</v>
+      </c>
+      <c r="K15">
+        <v>8.1</v>
+      </c>
+      <c r="L15">
+        <v>6.9</v>
+      </c>
+      <c r="M15">
+        <v>1860</v>
+      </c>
+      <c r="N15">
+        <v>1931</v>
+      </c>
+      <c r="O15">
+        <v>6950</v>
+      </c>
+      <c r="P15">
+        <v>7092</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>9999</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>2017</v>
+      </c>
+      <c r="D16">
+        <v>95293</v>
+      </c>
+      <c r="E16">
+        <v>112755</v>
+      </c>
+      <c r="F16">
+        <v>208048</v>
+      </c>
+      <c r="G16">
+        <v>45.8</v>
+      </c>
+      <c r="H16">
+        <v>54.2</v>
+      </c>
+      <c r="I16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L16">
+        <v>7.1</v>
+      </c>
+      <c r="M16">
+        <v>2077</v>
+      </c>
+      <c r="N16">
+        <v>2226</v>
+      </c>
+      <c r="O16">
+        <v>7269</v>
+      </c>
+      <c r="P16">
+        <v>7465</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>9999</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>2018</v>
+      </c>
+      <c r="D17">
+        <v>99320</v>
+      </c>
+      <c r="E17">
+        <v>116947</v>
+      </c>
+      <c r="F17">
+        <v>216267</v>
+      </c>
+      <c r="G17">
+        <v>45.9</v>
+      </c>
+      <c r="H17">
+        <v>54.1</v>
+      </c>
+      <c r="I17">
+        <v>4.2</v>
+      </c>
+      <c r="J17">
+        <v>3.7</v>
+      </c>
+      <c r="K17">
+        <v>10.8</v>
+      </c>
+      <c r="L17">
+        <v>9.4</v>
+      </c>
+      <c r="M17">
+        <v>4027</v>
+      </c>
+      <c r="N17">
+        <v>4192</v>
+      </c>
+      <c r="O17">
+        <v>9671</v>
+      </c>
+      <c r="P17">
+        <v>10059</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>9999</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>2019</v>
+      </c>
+      <c r="D18">
+        <v>103975</v>
+      </c>
+      <c r="E18">
+        <v>121509</v>
+      </c>
+      <c r="F18">
+        <v>225484</v>
+      </c>
+      <c r="G18">
+        <v>46.1</v>
+      </c>
+      <c r="H18">
+        <v>53.9</v>
+      </c>
+      <c r="I18">
+        <v>4.7</v>
+      </c>
+      <c r="J18">
+        <v>3.9</v>
+      </c>
+      <c r="K18">
+        <v>13.8</v>
+      </c>
+      <c r="L18">
+        <v>11.9</v>
+      </c>
+      <c r="M18">
+        <v>4655</v>
+      </c>
+      <c r="N18">
+        <v>4562</v>
+      </c>
+      <c r="O18">
+        <v>12619</v>
+      </c>
+      <c r="P18">
+        <v>12911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>9999</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>2020</v>
+      </c>
+      <c r="D19">
+        <v>108150</v>
+      </c>
+      <c r="E19">
+        <v>126104</v>
+      </c>
+      <c r="F19">
+        <v>234254</v>
+      </c>
+      <c r="G19">
+        <v>46.2</v>
+      </c>
+      <c r="H19">
+        <v>53.8</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>3.8</v>
+      </c>
+      <c r="K19">
+        <v>16</v>
+      </c>
+      <c r="L19">
+        <v>14.1</v>
+      </c>
+      <c r="M19">
+        <v>4175</v>
+      </c>
+      <c r="N19">
+        <v>4595</v>
+      </c>
+      <c r="O19">
+        <v>14934</v>
+      </c>
+      <c r="P19">
+        <v>15575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>9999</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>2021</v>
+      </c>
+      <c r="D20">
+        <v>110814</v>
+      </c>
+      <c r="E20">
+        <v>128595</v>
+      </c>
+      <c r="F20">
+        <v>239409</v>
+      </c>
+      <c r="G20">
+        <v>46.3</v>
+      </c>
+      <c r="H20">
+        <v>53.7</v>
+      </c>
+      <c r="I20">
+        <v>2.5</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>16.3</v>
+      </c>
+      <c r="L20">
+        <v>14</v>
+      </c>
+      <c r="M20">
+        <v>2664</v>
+      </c>
+      <c r="N20">
+        <v>2491</v>
+      </c>
+      <c r="O20">
+        <v>15521</v>
+      </c>
+      <c r="P20">
+        <v>15840</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>9999</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>2022</v>
+      </c>
+      <c r="D21">
+        <v>112820</v>
+      </c>
+      <c r="E21">
+        <v>130131</v>
+      </c>
+      <c r="F21">
+        <v>242951</v>
+      </c>
+      <c r="G21">
+        <v>46.4</v>
+      </c>
+      <c r="H21">
+        <v>53.6</v>
+      </c>
+      <c r="I21">
+        <v>1.8</v>
+      </c>
+      <c r="J21">
+        <v>1.2</v>
+      </c>
+      <c r="K21">
+        <v>13.6</v>
+      </c>
+      <c r="L21">
+        <v>11.3</v>
+      </c>
+      <c r="M21">
+        <v>2006</v>
+      </c>
+      <c r="N21">
+        <v>1536</v>
+      </c>
+      <c r="O21">
+        <v>13500</v>
+      </c>
+      <c r="P21">
+        <v>13184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>9999</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>2023</v>
+      </c>
+      <c r="D22">
+        <v>114737</v>
+      </c>
+      <c r="E22">
+        <v>131511</v>
+      </c>
+      <c r="F22">
+        <v>246248</v>
+      </c>
+      <c r="G22">
+        <v>46.6</v>
+      </c>
+      <c r="H22">
+        <v>53.4</v>
+      </c>
+      <c r="I22">
+        <v>1.7</v>
+      </c>
+      <c r="J22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K22">
+        <v>10.4</v>
+      </c>
+      <c r="L22">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M22">
+        <v>1917</v>
+      </c>
+      <c r="N22">
+        <v>1380</v>
+      </c>
+      <c r="O22">
+        <v>10762</v>
+      </c>
+      <c r="P22">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>9999</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>2024</v>
+      </c>
+      <c r="D23">
+        <v>116688</v>
+      </c>
+      <c r="E23">
+        <v>132887</v>
+      </c>
+      <c r="F23">
+        <v>249575</v>
+      </c>
+      <c r="G23">
+        <v>46.8</v>
+      </c>
+      <c r="H23">
+        <v>53.2</v>
+      </c>
+      <c r="I23">
+        <v>1.7</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>7.9</v>
+      </c>
+      <c r="L23">
+        <v>5.4</v>
+      </c>
+      <c r="M23">
+        <v>1951</v>
+      </c>
+      <c r="N23">
+        <v>1376</v>
+      </c>
+      <c r="O23">
+        <v>8538</v>
+      </c>
+      <c r="P23">
+        <v>6783</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>9999</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>2025</v>
+      </c>
+      <c r="D24">
+        <v>118668</v>
+      </c>
+      <c r="E24">
+        <v>134261</v>
+      </c>
+      <c r="F24">
+        <v>252929</v>
+      </c>
+      <c r="G24">
+        <v>46.9</v>
+      </c>
+      <c r="H24">
+        <v>53.1</v>
+      </c>
+      <c r="I24">
+        <v>1.7</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>7.1</v>
+      </c>
+      <c r="L24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M24">
+        <v>1980</v>
+      </c>
+      <c r="N24">
+        <v>1374</v>
+      </c>
+      <c r="O24">
+        <v>7854</v>
+      </c>
+      <c r="P24">
+        <v>5666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>9999</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>2026</v>
+      </c>
+      <c r="D25">
+        <v>120694</v>
+      </c>
+      <c r="E25">
+        <v>135670</v>
+      </c>
+      <c r="F25">
+        <v>256364</v>
+      </c>
+      <c r="G25">
+        <v>47.1</v>
+      </c>
+      <c r="H25">
+        <v>52.9</v>
+      </c>
+      <c r="I25">
+        <v>1.7</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>7</v>
+      </c>
+      <c r="L25">
+        <v>4.3</v>
+      </c>
+      <c r="M25">
+        <v>2026</v>
+      </c>
+      <c r="N25">
+        <v>1409</v>
+      </c>
+      <c r="O25">
+        <v>7874</v>
+      </c>
+      <c r="P25">
+        <v>5539</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>9999</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>2027</v>
+      </c>
+      <c r="D26">
+        <v>122775</v>
+      </c>
+      <c r="E26">
+        <v>137134</v>
+      </c>
+      <c r="F26">
+        <v>259909</v>
+      </c>
+      <c r="G26">
+        <v>47.2</v>
+      </c>
+      <c r="H26">
+        <v>52.8</v>
+      </c>
+      <c r="I26">
+        <v>1.7</v>
+      </c>
+      <c r="J26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K26">
+        <v>7</v>
+      </c>
+      <c r="L26">
+        <v>4.3</v>
+      </c>
+      <c r="M26">
+        <v>2081</v>
+      </c>
+      <c r="N26">
+        <v>1464</v>
+      </c>
+      <c r="O26">
+        <v>8038</v>
+      </c>
+      <c r="P26">
+        <v>5623</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>9999</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>2028</v>
+      </c>
+      <c r="D27">
+        <v>124914</v>
+      </c>
+      <c r="E27">
+        <v>138691</v>
+      </c>
+      <c r="F27">
+        <v>263605</v>
+      </c>
+      <c r="G27">
+        <v>47.4</v>
+      </c>
+      <c r="H27">
+        <v>52.6</v>
+      </c>
+      <c r="I27">
+        <v>1.7</v>
+      </c>
+      <c r="J27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K27">
+        <v>7</v>
+      </c>
+      <c r="L27">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M27">
+        <v>2139</v>
+      </c>
+      <c r="N27">
+        <v>1557</v>
+      </c>
+      <c r="O27">
+        <v>8226</v>
+      </c>
+      <c r="P27">
+        <v>5804</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>9999</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>2029</v>
+      </c>
+      <c r="D28">
+        <v>127099</v>
+      </c>
+      <c r="E28">
+        <v>140305</v>
+      </c>
+      <c r="F28">
+        <v>267404</v>
+      </c>
+      <c r="G28">
+        <v>47.5</v>
+      </c>
+      <c r="H28">
+        <v>52.5</v>
+      </c>
+      <c r="I28">
+        <v>1.7</v>
+      </c>
+      <c r="J28">
+        <v>1.2</v>
+      </c>
+      <c r="K28">
+        <v>7.1</v>
+      </c>
+      <c r="L28">
+        <v>4.5</v>
+      </c>
+      <c r="M28">
+        <v>2185</v>
+      </c>
+      <c r="N28">
+        <v>1614</v>
+      </c>
+      <c r="O28">
+        <v>8431</v>
+      </c>
+      <c r="P28">
+        <v>6044</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>9999</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>2030</v>
+      </c>
+      <c r="D29">
+        <v>129351</v>
+      </c>
+      <c r="E29">
+        <v>141928</v>
+      </c>
+      <c r="F29">
+        <v>271279</v>
+      </c>
+      <c r="G29">
+        <v>47.7</v>
+      </c>
+      <c r="H29">
+        <v>52.3</v>
+      </c>
+      <c r="I29">
+        <v>1.8</v>
+      </c>
+      <c r="J29">
+        <v>1.2</v>
+      </c>
+      <c r="K29">
+        <v>7.2</v>
+      </c>
+      <c r="L29">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M29">
+        <v>2252</v>
+      </c>
+      <c r="N29">
+        <v>1623</v>
+      </c>
+      <c r="O29">
+        <v>8657</v>
+      </c>
+      <c r="P29">
+        <v>6258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>9999</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>2031</v>
+      </c>
+      <c r="D30">
+        <v>131670</v>
+      </c>
+      <c r="E30">
+        <v>143526</v>
+      </c>
+      <c r="F30">
+        <v>275196</v>
+      </c>
+      <c r="G30">
+        <v>47.8</v>
+      </c>
+      <c r="H30">
+        <v>52.2</v>
+      </c>
+      <c r="I30">
+        <v>1.8</v>
+      </c>
+      <c r="J30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K30">
+        <v>7.2</v>
+      </c>
+      <c r="L30">
+        <v>4.7</v>
+      </c>
+      <c r="M30">
+        <v>2319</v>
+      </c>
+      <c r="N30">
+        <v>1598</v>
+      </c>
+      <c r="O30">
+        <v>8895</v>
+      </c>
+      <c r="P30">
+        <v>6392</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>9999</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>2032</v>
+      </c>
+      <c r="D31">
+        <v>134035</v>
+      </c>
+      <c r="E31">
+        <v>145084</v>
+      </c>
+      <c r="F31">
+        <v>279119</v>
+      </c>
+      <c r="G31">
+        <v>48</v>
+      </c>
+      <c r="H31">
+        <v>52</v>
+      </c>
+      <c r="I31">
+        <v>1.8</v>
+      </c>
+      <c r="J31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K31">
+        <v>7.3</v>
+      </c>
+      <c r="L31">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M31">
+        <v>2365</v>
+      </c>
+      <c r="N31">
+        <v>1558</v>
+      </c>
+      <c r="O31">
+        <v>9121</v>
+      </c>
+      <c r="P31">
+        <v>6393</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>9999</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>2033</v>
+      </c>
+      <c r="D32">
+        <v>136486</v>
+      </c>
+      <c r="E32">
+        <v>146570</v>
+      </c>
+      <c r="F32">
+        <v>283056</v>
+      </c>
+      <c r="G32">
+        <v>48.2</v>
+      </c>
+      <c r="H32">
+        <v>51.8</v>
+      </c>
+      <c r="I32">
+        <v>1.8</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>7.4</v>
+      </c>
+      <c r="L32">
+        <v>4.5</v>
+      </c>
+      <c r="M32">
+        <v>2451</v>
+      </c>
+      <c r="N32">
+        <v>1486</v>
+      </c>
+      <c r="O32">
+        <v>9387</v>
+      </c>
+      <c r="P32">
+        <v>6265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>9999</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>2034</v>
+      </c>
+      <c r="D33">
+        <v>138980</v>
+      </c>
+      <c r="E33">
+        <v>148043</v>
+      </c>
+      <c r="F33">
+        <v>287023</v>
+      </c>
+      <c r="G33">
+        <v>48.4</v>
+      </c>
+      <c r="H33">
+        <v>51.6</v>
+      </c>
+      <c r="I33">
+        <v>1.8</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>7.4</v>
+      </c>
+      <c r="L33">
+        <v>4.3</v>
+      </c>
+      <c r="M33">
+        <v>2494</v>
+      </c>
+      <c r="N33">
+        <v>1473</v>
+      </c>
+      <c r="O33">
+        <v>9629</v>
+      </c>
+      <c r="P33">
+        <v>6115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>9999</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>2035</v>
+      </c>
+      <c r="D34">
+        <v>141482</v>
+      </c>
+      <c r="E34">
+        <v>149532</v>
+      </c>
+      <c r="F34">
+        <v>291014</v>
+      </c>
+      <c r="G34">
+        <v>48.6</v>
+      </c>
+      <c r="H34">
+        <v>51.4</v>
+      </c>
+      <c r="I34">
+        <v>1.8</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>7.5</v>
+      </c>
+      <c r="L34">
+        <v>4.2</v>
+      </c>
+      <c r="M34">
+        <v>2502</v>
+      </c>
+      <c r="N34">
+        <v>1489</v>
+      </c>
+      <c r="O34">
+        <v>9812</v>
+      </c>
+      <c r="P34">
+        <v>6006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>13120</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>2003</v>
+      </c>
+      <c r="D35">
+        <v>71557</v>
+      </c>
+      <c r="E35">
+        <v>88527</v>
+      </c>
+      <c r="F35">
+        <v>160084</v>
+      </c>
+      <c r="G35">
+        <v>44.7</v>
+      </c>
+      <c r="H35">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>13120</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>2004</v>
+      </c>
+      <c r="D36">
+        <v>73194</v>
+      </c>
+      <c r="E36">
+        <v>90243</v>
+      </c>
+      <c r="F36">
+        <v>163437</v>
+      </c>
+      <c r="G36">
+        <v>44.8</v>
+      </c>
+      <c r="H36">
+        <v>55.2</v>
+      </c>
+      <c r="I36">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J36">
+        <v>1.9</v>
+      </c>
+      <c r="M36">
+        <v>1637</v>
+      </c>
+      <c r="N36">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>13120</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>2005</v>
+      </c>
+      <c r="D37">
+        <v>74806</v>
+      </c>
+      <c r="E37">
+        <v>91871</v>
+      </c>
+      <c r="F37">
+        <v>166677</v>
+      </c>
+      <c r="G37">
+        <v>44.9</v>
+      </c>
+      <c r="H37">
+        <v>55.1</v>
+      </c>
+      <c r="I37">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J37">
+        <v>1.8</v>
+      </c>
+      <c r="M37">
+        <v>1612</v>
+      </c>
+      <c r="N37">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>13120</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>2006</v>
+      </c>
+      <c r="D38">
+        <v>76350</v>
+      </c>
+      <c r="E38">
+        <v>93441</v>
+      </c>
+      <c r="F38">
+        <v>169791</v>
+      </c>
+      <c r="G38">
+        <v>45</v>
+      </c>
+      <c r="H38">
+        <v>55</v>
+      </c>
+      <c r="I38">
+        <v>2.1</v>
+      </c>
+      <c r="J38">
+        <v>1.7</v>
+      </c>
+      <c r="M38">
+        <v>1544</v>
+      </c>
+      <c r="N38">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>13120</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>2007</v>
+      </c>
+      <c r="D39">
+        <v>77931</v>
+      </c>
+      <c r="E39">
+        <v>95020</v>
+      </c>
+      <c r="F39">
+        <v>172951</v>
+      </c>
+      <c r="G39">
+        <v>45.1</v>
+      </c>
+      <c r="H39">
+        <v>54.9</v>
+      </c>
+      <c r="I39">
+        <v>2.1</v>
+      </c>
+      <c r="J39">
+        <v>1.7</v>
+      </c>
+      <c r="K39">
+        <v>8.9</v>
+      </c>
+      <c r="L39">
+        <v>7.3</v>
+      </c>
+      <c r="M39">
+        <v>1581</v>
+      </c>
+      <c r="N39">
+        <v>1579</v>
+      </c>
+      <c r="O39">
+        <v>6374</v>
+      </c>
+      <c r="P39">
+        <v>6493</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>13120</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>2008</v>
+      </c>
+      <c r="D40">
+        <v>79540</v>
+      </c>
+      <c r="E40">
+        <v>96640</v>
+      </c>
+      <c r="F40">
+        <v>176180</v>
+      </c>
+      <c r="G40">
+        <v>45.1</v>
+      </c>
+      <c r="H40">
+        <v>54.9</v>
+      </c>
+      <c r="I40">
+        <v>2.1</v>
+      </c>
+      <c r="J40">
+        <v>1.7</v>
+      </c>
+      <c r="K40">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L40">
+        <v>7.1</v>
+      </c>
+      <c r="M40">
+        <v>1609</v>
+      </c>
+      <c r="N40">
+        <v>1620</v>
+      </c>
+      <c r="O40">
+        <v>6346</v>
+      </c>
+      <c r="P40">
+        <v>6397</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>13120</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>2009</v>
+      </c>
+      <c r="D41">
+        <v>81206</v>
+      </c>
+      <c r="E41">
+        <v>98329</v>
+      </c>
+      <c r="F41">
+        <v>179535</v>
+      </c>
+      <c r="G41">
+        <v>45.2</v>
+      </c>
+      <c r="H41">
+        <v>54.8</v>
+      </c>
+      <c r="I41">
+        <v>2.1</v>
+      </c>
+      <c r="J41">
+        <v>1.7</v>
+      </c>
+      <c r="K41">
+        <v>8.6</v>
+      </c>
+      <c r="L41">
+        <v>7</v>
+      </c>
+      <c r="M41">
+        <v>1666</v>
+      </c>
+      <c r="N41">
+        <v>1689</v>
+      </c>
+      <c r="O41">
+        <v>6400</v>
+      </c>
+      <c r="P41">
+        <v>6458</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>13120</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>2010</v>
+      </c>
+      <c r="D42">
+        <v>82856</v>
+      </c>
+      <c r="E42">
+        <v>100007</v>
+      </c>
+      <c r="F42">
+        <v>182863</v>
+      </c>
+      <c r="G42">
+        <v>45.3</v>
+      </c>
+      <c r="H42">
+        <v>54.7</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>1.7</v>
+      </c>
+      <c r="K42">
+        <v>8.5</v>
+      </c>
+      <c r="L42">
+        <v>7</v>
+      </c>
+      <c r="M42">
+        <v>1650</v>
+      </c>
+      <c r="N42">
+        <v>1678</v>
+      </c>
+      <c r="O42">
+        <v>6506</v>
+      </c>
+      <c r="P42">
+        <v>6566</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>13120</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>2011</v>
+      </c>
+      <c r="D43">
+        <v>84513</v>
+      </c>
+      <c r="E43">
+        <v>101658</v>
+      </c>
+      <c r="F43">
+        <v>186171</v>
+      </c>
+      <c r="G43">
+        <v>45.4</v>
+      </c>
+      <c r="H43">
+        <v>54.6</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>1.7</v>
+      </c>
+      <c r="K43">
+        <v>8.4</v>
+      </c>
+      <c r="L43">
+        <v>7</v>
+      </c>
+      <c r="M43">
+        <v>1657</v>
+      </c>
+      <c r="N43">
+        <v>1651</v>
+      </c>
+      <c r="O43">
+        <v>6582</v>
+      </c>
+      <c r="P43">
+        <v>6638</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>13120</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>2012</v>
+      </c>
+      <c r="D44">
+        <v>86266</v>
+      </c>
+      <c r="E44">
+        <v>103437</v>
+      </c>
+      <c r="F44">
+        <v>189703</v>
+      </c>
+      <c r="G44">
+        <v>45.5</v>
+      </c>
+      <c r="H44">
+        <v>54.5</v>
+      </c>
+      <c r="I44">
+        <v>2.1</v>
+      </c>
+      <c r="J44">
+        <v>1.7</v>
+      </c>
+      <c r="K44">
+        <v>8.5</v>
+      </c>
+      <c r="L44">
+        <v>7</v>
+      </c>
+      <c r="M44">
+        <v>1753</v>
+      </c>
+      <c r="N44">
+        <v>1779</v>
+      </c>
+      <c r="O44">
+        <v>6726</v>
+      </c>
+      <c r="P44">
+        <v>6797</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>13120</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>2013</v>
+      </c>
+      <c r="D45">
+        <v>88024</v>
+      </c>
+      <c r="E45">
+        <v>105290</v>
+      </c>
+      <c r="F45">
+        <v>193314</v>
+      </c>
+      <c r="G45">
+        <v>45.5</v>
+      </c>
+      <c r="H45">
+        <v>54.5</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>1.8</v>
+      </c>
+      <c r="K45">
+        <v>8.4</v>
+      </c>
+      <c r="L45">
+        <v>7.1</v>
+      </c>
+      <c r="M45">
+        <v>1758</v>
+      </c>
+      <c r="N45">
+        <v>1853</v>
+      </c>
+      <c r="O45">
+        <v>6818</v>
+      </c>
+      <c r="P45">
+        <v>6961</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>13120</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>2014</v>
+      </c>
+      <c r="D46">
+        <v>89649</v>
+      </c>
+      <c r="E46">
+        <v>106888</v>
+      </c>
+      <c r="F46">
+        <v>196537</v>
+      </c>
+      <c r="G46">
+        <v>45.6</v>
+      </c>
+      <c r="H46">
+        <v>54.4</v>
+      </c>
+      <c r="I46">
+        <v>1.8</v>
+      </c>
+      <c r="J46">
+        <v>1.5</v>
+      </c>
+      <c r="K46">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L46">
+        <v>6.9</v>
+      </c>
+      <c r="M46">
+        <v>1625</v>
+      </c>
+      <c r="N46">
+        <v>1598</v>
+      </c>
+      <c r="O46">
+        <v>6793</v>
+      </c>
+      <c r="P46">
+        <v>6881</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>13120</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>2015</v>
+      </c>
+      <c r="D47">
+        <v>91356</v>
+      </c>
+      <c r="E47">
+        <v>108598</v>
+      </c>
+      <c r="F47">
+        <v>199954</v>
+      </c>
+      <c r="G47">
+        <v>45.7</v>
+      </c>
+      <c r="H47">
+        <v>54.3</v>
+      </c>
+      <c r="I47">
+        <v>1.9</v>
+      </c>
+      <c r="J47">
+        <v>1.6</v>
+      </c>
+      <c r="K47">
+        <v>8.1</v>
+      </c>
+      <c r="L47">
+        <v>6.8</v>
+      </c>
+      <c r="M47">
+        <v>1707</v>
+      </c>
+      <c r="N47">
+        <v>1710</v>
+      </c>
+      <c r="O47">
+        <v>6843</v>
+      </c>
+      <c r="P47">
+        <v>6940</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>13120</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>2016</v>
+      </c>
+      <c r="D48">
+        <v>93216</v>
+      </c>
+      <c r="E48">
+        <v>110529</v>
+      </c>
+      <c r="F48">
+        <v>203745</v>
+      </c>
+      <c r="G48">
+        <v>45.8</v>
+      </c>
+      <c r="H48">
+        <v>54.2</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>1.8</v>
+      </c>
+      <c r="K48">
+        <v>8.1</v>
+      </c>
+      <c r="L48">
+        <v>6.9</v>
+      </c>
+      <c r="M48">
+        <v>1860</v>
+      </c>
+      <c r="N48">
+        <v>1931</v>
+      </c>
+      <c r="O48">
+        <v>6950</v>
+      </c>
+      <c r="P48">
+        <v>7092</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>13120</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>2017</v>
+      </c>
+      <c r="D49">
+        <v>95293</v>
+      </c>
+      <c r="E49">
+        <v>112755</v>
+      </c>
+      <c r="F49">
+        <v>208048</v>
+      </c>
+      <c r="G49">
+        <v>45.8</v>
+      </c>
+      <c r="H49">
+        <v>54.2</v>
+      </c>
+      <c r="I49">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L49">
+        <v>7.1</v>
+      </c>
+      <c r="M49">
+        <v>2077</v>
+      </c>
+      <c r="N49">
+        <v>2226</v>
+      </c>
+      <c r="O49">
+        <v>7269</v>
+      </c>
+      <c r="P49">
+        <v>7465</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>13120</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>2018</v>
+      </c>
+      <c r="D50">
+        <v>99320</v>
+      </c>
+      <c r="E50">
+        <v>116947</v>
+      </c>
+      <c r="F50">
+        <v>216267</v>
+      </c>
+      <c r="G50">
+        <v>45.9</v>
+      </c>
+      <c r="H50">
+        <v>54.1</v>
+      </c>
+      <c r="I50">
+        <v>4.2</v>
+      </c>
+      <c r="J50">
+        <v>3.7</v>
+      </c>
+      <c r="K50">
+        <v>10.8</v>
+      </c>
+      <c r="L50">
+        <v>9.4</v>
+      </c>
+      <c r="M50">
+        <v>4027</v>
+      </c>
+      <c r="N50">
+        <v>4192</v>
+      </c>
+      <c r="O50">
+        <v>9671</v>
+      </c>
+      <c r="P50">
+        <v>10059</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>13120</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>2019</v>
+      </c>
+      <c r="D51">
+        <v>103975</v>
+      </c>
+      <c r="E51">
+        <v>121509</v>
+      </c>
+      <c r="F51">
+        <v>225484</v>
+      </c>
+      <c r="G51">
+        <v>46.1</v>
+      </c>
+      <c r="H51">
+        <v>53.9</v>
+      </c>
+      <c r="I51">
+        <v>4.7</v>
+      </c>
+      <c r="J51">
+        <v>3.9</v>
+      </c>
+      <c r="K51">
+        <v>13.8</v>
+      </c>
+      <c r="L51">
+        <v>11.9</v>
+      </c>
+      <c r="M51">
+        <v>4655</v>
+      </c>
+      <c r="N51">
+        <v>4562</v>
+      </c>
+      <c r="O51">
+        <v>12619</v>
+      </c>
+      <c r="P51">
+        <v>12911</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>13120</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>2020</v>
+      </c>
+      <c r="D52">
+        <v>108150</v>
+      </c>
+      <c r="E52">
+        <v>126104</v>
+      </c>
+      <c r="F52">
+        <v>234254</v>
+      </c>
+      <c r="G52">
+        <v>46.2</v>
+      </c>
+      <c r="H52">
+        <v>53.8</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52">
+        <v>3.8</v>
+      </c>
+      <c r="K52">
+        <v>16</v>
+      </c>
+      <c r="L52">
+        <v>14.1</v>
+      </c>
+      <c r="M52">
+        <v>4175</v>
+      </c>
+      <c r="N52">
+        <v>4595</v>
+      </c>
+      <c r="O52">
+        <v>14934</v>
+      </c>
+      <c r="P52">
+        <v>15575</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>13120</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>2021</v>
+      </c>
+      <c r="D53">
+        <v>110814</v>
+      </c>
+      <c r="E53">
+        <v>128595</v>
+      </c>
+      <c r="F53">
+        <v>239409</v>
+      </c>
+      <c r="G53">
+        <v>46.3</v>
+      </c>
+      <c r="H53">
+        <v>53.7</v>
+      </c>
+      <c r="I53">
+        <v>2.5</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>16.3</v>
+      </c>
+      <c r="L53">
+        <v>14</v>
+      </c>
+      <c r="M53">
+        <v>2664</v>
+      </c>
+      <c r="N53">
+        <v>2491</v>
+      </c>
+      <c r="O53">
+        <v>15521</v>
+      </c>
+      <c r="P53">
+        <v>15840</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>13120</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>2022</v>
+      </c>
+      <c r="D54">
+        <v>112820</v>
+      </c>
+      <c r="E54">
+        <v>130131</v>
+      </c>
+      <c r="F54">
+        <v>242951</v>
+      </c>
+      <c r="G54">
+        <v>46.4</v>
+      </c>
+      <c r="H54">
+        <v>53.6</v>
+      </c>
+      <c r="I54">
+        <v>1.8</v>
+      </c>
+      <c r="J54">
+        <v>1.2</v>
+      </c>
+      <c r="K54">
+        <v>13.6</v>
+      </c>
+      <c r="L54">
+        <v>11.3</v>
+      </c>
+      <c r="M54">
+        <v>2006</v>
+      </c>
+      <c r="N54">
+        <v>1536</v>
+      </c>
+      <c r="O54">
+        <v>13500</v>
+      </c>
+      <c r="P54">
+        <v>13184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>13120</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>2023</v>
+      </c>
+      <c r="D55">
+        <v>114737</v>
+      </c>
+      <c r="E55">
+        <v>131511</v>
+      </c>
+      <c r="F55">
+        <v>246248</v>
+      </c>
+      <c r="G55">
+        <v>46.6</v>
+      </c>
+      <c r="H55">
+        <v>53.4</v>
+      </c>
+      <c r="I55">
+        <v>1.7</v>
+      </c>
+      <c r="J55">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K55">
+        <v>10.4</v>
+      </c>
+      <c r="L55">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M55">
+        <v>1917</v>
+      </c>
+      <c r="N55">
+        <v>1380</v>
+      </c>
+      <c r="O55">
+        <v>10762</v>
+      </c>
+      <c r="P55">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>13120</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>2024</v>
+      </c>
+      <c r="D56">
+        <v>116688</v>
+      </c>
+      <c r="E56">
+        <v>132887</v>
+      </c>
+      <c r="F56">
+        <v>249575</v>
+      </c>
+      <c r="G56">
+        <v>46.8</v>
+      </c>
+      <c r="H56">
+        <v>53.2</v>
+      </c>
+      <c r="I56">
+        <v>1.7</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>7.9</v>
+      </c>
+      <c r="L56">
+        <v>5.4</v>
+      </c>
+      <c r="M56">
+        <v>1951</v>
+      </c>
+      <c r="N56">
+        <v>1376</v>
+      </c>
+      <c r="O56">
+        <v>8538</v>
+      </c>
+      <c r="P56">
+        <v>6783</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>13120</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>2025</v>
+      </c>
+      <c r="D57">
+        <v>118668</v>
+      </c>
+      <c r="E57">
+        <v>134261</v>
+      </c>
+      <c r="F57">
+        <v>252929</v>
+      </c>
+      <c r="G57">
+        <v>46.9</v>
+      </c>
+      <c r="H57">
+        <v>53.1</v>
+      </c>
+      <c r="I57">
+        <v>1.7</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>7.1</v>
+      </c>
+      <c r="L57">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M57">
+        <v>1980</v>
+      </c>
+      <c r="N57">
+        <v>1374</v>
+      </c>
+      <c r="O57">
+        <v>7854</v>
+      </c>
+      <c r="P57">
+        <v>5666</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>13120</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>2026</v>
+      </c>
+      <c r="D58">
+        <v>120694</v>
+      </c>
+      <c r="E58">
+        <v>135670</v>
+      </c>
+      <c r="F58">
+        <v>256364</v>
+      </c>
+      <c r="G58">
+        <v>47.1</v>
+      </c>
+      <c r="H58">
+        <v>52.9</v>
+      </c>
+      <c r="I58">
+        <v>1.7</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>7</v>
+      </c>
+      <c r="L58">
+        <v>4.3</v>
+      </c>
+      <c r="M58">
+        <v>2026</v>
+      </c>
+      <c r="N58">
+        <v>1409</v>
+      </c>
+      <c r="O58">
+        <v>7874</v>
+      </c>
+      <c r="P58">
+        <v>5539</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>13120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>2027</v>
+      </c>
+      <c r="D59">
+        <v>122775</v>
+      </c>
+      <c r="E59">
+        <v>137134</v>
+      </c>
+      <c r="F59">
+        <v>259909</v>
+      </c>
+      <c r="G59">
+        <v>47.2</v>
+      </c>
+      <c r="H59">
+        <v>52.8</v>
+      </c>
+      <c r="I59">
+        <v>1.7</v>
+      </c>
+      <c r="J59">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K59">
+        <v>7</v>
+      </c>
+      <c r="L59">
+        <v>4.3</v>
+      </c>
+      <c r="M59">
+        <v>2081</v>
+      </c>
+      <c r="N59">
+        <v>1464</v>
+      </c>
+      <c r="O59">
+        <v>8038</v>
+      </c>
+      <c r="P59">
+        <v>5623</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>13120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>2028</v>
+      </c>
+      <c r="D60">
+        <v>124914</v>
+      </c>
+      <c r="E60">
+        <v>138691</v>
+      </c>
+      <c r="F60">
+        <v>263605</v>
+      </c>
+      <c r="G60">
+        <v>47.4</v>
+      </c>
+      <c r="H60">
+        <v>52.6</v>
+      </c>
+      <c r="I60">
+        <v>1.7</v>
+      </c>
+      <c r="J60">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K60">
+        <v>7</v>
+      </c>
+      <c r="L60">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M60">
+        <v>2139</v>
+      </c>
+      <c r="N60">
+        <v>1557</v>
+      </c>
+      <c r="O60">
+        <v>8226</v>
+      </c>
+      <c r="P60">
+        <v>5804</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>13120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>2029</v>
+      </c>
+      <c r="D61">
+        <v>127099</v>
+      </c>
+      <c r="E61">
+        <v>140305</v>
+      </c>
+      <c r="F61">
+        <v>267404</v>
+      </c>
+      <c r="G61">
+        <v>47.5</v>
+      </c>
+      <c r="H61">
+        <v>52.5</v>
+      </c>
+      <c r="I61">
+        <v>1.7</v>
+      </c>
+      <c r="J61">
+        <v>1.2</v>
+      </c>
+      <c r="K61">
+        <v>7.1</v>
+      </c>
+      <c r="L61">
+        <v>4.5</v>
+      </c>
+      <c r="M61">
+        <v>2185</v>
+      </c>
+      <c r="N61">
+        <v>1614</v>
+      </c>
+      <c r="O61">
+        <v>8431</v>
+      </c>
+      <c r="P61">
+        <v>6044</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>13120</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>2030</v>
+      </c>
+      <c r="D62">
+        <v>129351</v>
+      </c>
+      <c r="E62">
+        <v>141928</v>
+      </c>
+      <c r="F62">
+        <v>271279</v>
+      </c>
+      <c r="G62">
+        <v>47.7</v>
+      </c>
+      <c r="H62">
+        <v>52.3</v>
+      </c>
+      <c r="I62">
+        <v>1.8</v>
+      </c>
+      <c r="J62">
+        <v>1.2</v>
+      </c>
+      <c r="K62">
+        <v>7.2</v>
+      </c>
+      <c r="L62">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M62">
+        <v>2252</v>
+      </c>
+      <c r="N62">
+        <v>1623</v>
+      </c>
+      <c r="O62">
+        <v>8657</v>
+      </c>
+      <c r="P62">
+        <v>6258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>13120</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>2031</v>
+      </c>
+      <c r="D63">
+        <v>131670</v>
+      </c>
+      <c r="E63">
+        <v>143526</v>
+      </c>
+      <c r="F63">
+        <v>275196</v>
+      </c>
+      <c r="G63">
+        <v>47.8</v>
+      </c>
+      <c r="H63">
+        <v>52.2</v>
+      </c>
+      <c r="I63">
+        <v>1.8</v>
+      </c>
+      <c r="J63">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K63">
+        <v>7.2</v>
+      </c>
+      <c r="L63">
+        <v>4.7</v>
+      </c>
+      <c r="M63">
+        <v>2319</v>
+      </c>
+      <c r="N63">
+        <v>1598</v>
+      </c>
+      <c r="O63">
+        <v>8895</v>
+      </c>
+      <c r="P63">
+        <v>6392</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>13120</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>2032</v>
+      </c>
+      <c r="D64">
+        <v>134035</v>
+      </c>
+      <c r="E64">
+        <v>145084</v>
+      </c>
+      <c r="F64">
+        <v>279119</v>
+      </c>
+      <c r="G64">
+        <v>48</v>
+      </c>
+      <c r="H64">
+        <v>52</v>
+      </c>
+      <c r="I64">
+        <v>1.8</v>
+      </c>
+      <c r="J64">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K64">
+        <v>7.3</v>
+      </c>
+      <c r="L64">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M64">
+        <v>2365</v>
+      </c>
+      <c r="N64">
+        <v>1558</v>
+      </c>
+      <c r="O64">
+        <v>9121</v>
+      </c>
+      <c r="P64">
+        <v>6393</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>13120</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>2033</v>
+      </c>
+      <c r="D65">
+        <v>136486</v>
+      </c>
+      <c r="E65">
+        <v>146570</v>
+      </c>
+      <c r="F65">
+        <v>283056</v>
+      </c>
+      <c r="G65">
+        <v>48.2</v>
+      </c>
+      <c r="H65">
+        <v>51.8</v>
+      </c>
+      <c r="I65">
+        <v>1.8</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>7.4</v>
+      </c>
+      <c r="L65">
+        <v>4.5</v>
+      </c>
+      <c r="M65">
+        <v>2451</v>
+      </c>
+      <c r="N65">
+        <v>1486</v>
+      </c>
+      <c r="O65">
+        <v>9387</v>
+      </c>
+      <c r="P65">
+        <v>6265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>13120</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>2034</v>
+      </c>
+      <c r="D66">
+        <v>138980</v>
+      </c>
+      <c r="E66">
+        <v>148043</v>
+      </c>
+      <c r="F66">
+        <v>287023</v>
+      </c>
+      <c r="G66">
+        <v>48.4</v>
+      </c>
+      <c r="H66">
+        <v>51.6</v>
+      </c>
+      <c r="I66">
+        <v>1.8</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>7.4</v>
+      </c>
+      <c r="L66">
+        <v>4.3</v>
+      </c>
+      <c r="M66">
+        <v>2494</v>
+      </c>
+      <c r="N66">
+        <v>1473</v>
+      </c>
+      <c r="O66">
+        <v>9629</v>
+      </c>
+      <c r="P66">
+        <v>6115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>13120</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>2035</v>
+      </c>
+      <c r="D67">
+        <v>141482</v>
+      </c>
+      <c r="E67">
+        <v>149532</v>
+      </c>
+      <c r="F67">
+        <v>291014</v>
+      </c>
+      <c r="G67">
+        <v>48.6</v>
+      </c>
+      <c r="H67">
+        <v>51.4</v>
+      </c>
+      <c r="I67">
+        <v>1.8</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>7.5</v>
+      </c>
+      <c r="L67">
+        <v>4.2</v>
+      </c>
+      <c r="M67">
+        <v>2502</v>
+      </c>
+      <c r="N67">
+        <v>1489</v>
+      </c>
+      <c r="O67">
+        <v>9812</v>
+      </c>
+      <c r="P67">
+        <v>6006</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R1" location="INICIO!A1" display="INICIO" xr:uid="{DC4082E4-BED1-4762-B4B7-B0AA3B7D1E4A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R1" location="INICIO!A1" display="INICIO" xr:uid="{FBA71A51-8229-4707-B3FB-EFE247DEB48F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AL35"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5649,8 +6042,11 @@
       <c r="AJ1" s="1">
         <v>2035</v>
       </c>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="AL1" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>9999</v>
       </c>
@@ -5760,7 +6156,7 @@
         <v>15174</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>9999</v>
       </c>
@@ -5870,7 +6266,7 @@
         <v>10964</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9999</v>
       </c>
@@ -5980,7 +6376,7 @@
         <v>10492</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9999</v>
       </c>
@@ -6090,7 +6486,7 @@
         <v>12462</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9999</v>
       </c>
@@ -6200,7 +6596,7 @@
         <v>14170</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>9999</v>
       </c>
@@ -6310,7 +6706,7 @@
         <v>18045</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>9999</v>
       </c>
@@ -6420,7 +6816,7 @@
         <v>23418</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9999</v>
       </c>
@@ -6530,7 +6926,7 @@
         <v>24976</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9999</v>
       </c>
@@ -6640,7 +7036,7 @@
         <v>24623</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9999</v>
       </c>
@@ -6750,7 +7146,7 @@
         <v>19672</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9999</v>
       </c>
@@ -6860,7 +7256,7 @@
         <v>18237</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9999</v>
       </c>
@@ -6970,7 +7366,7 @@
         <v>17943</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9999</v>
       </c>
@@ -7080,7 +7476,7 @@
         <v>15223</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9999</v>
       </c>
@@ -7190,7 +7586,7 @@
         <v>15604</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>9999</v>
       </c>
@@ -7300,7 +7696,7 @@
         <v>15425</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>9999</v>
       </c>
@@ -7410,7 +7806,7 @@
         <v>12388</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>9999</v>
       </c>
@@ -7520,7 +7916,7 @@
         <v>22198</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13120</v>
       </c>
@@ -7630,7 +8026,7 @@
         <v>15174</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>13120</v>
       </c>
@@ -7740,7 +8136,7 @@
         <v>10964</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>13120</v>
       </c>
@@ -7850,7 +8246,7 @@
         <v>10492</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>13120</v>
       </c>
@@ -7960,7 +8356,7 @@
         <v>12462</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>13120</v>
       </c>
@@ -8070,7 +8466,7 @@
         <v>14170</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>13120</v>
       </c>
@@ -8180,7 +8576,7 @@
         <v>18045</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>13120</v>
       </c>
@@ -8290,7 +8686,7 @@
         <v>23418</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>13120</v>
       </c>
@@ -8400,7 +8796,7 @@
         <v>24976</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>13120</v>
       </c>
@@ -8510,7 +8906,7 @@
         <v>24623</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>13120</v>
       </c>
@@ -8620,7 +9016,7 @@
         <v>19672</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>13120</v>
       </c>
@@ -8730,7 +9126,7 @@
         <v>18237</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>13120</v>
       </c>
@@ -8840,7 +9236,7 @@
         <v>17943</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>13120</v>
       </c>
@@ -8950,7 +9346,7 @@
         <v>15223</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>13120</v>
       </c>
@@ -9060,7 +9456,7 @@
         <v>15604</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>13120</v>
       </c>
@@ -9170,7 +9566,7 @@
         <v>15425</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>13120</v>
       </c>
@@ -9280,7 +9676,7 @@
         <v>12388</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>13120</v>
       </c>
@@ -9391,6 +9787,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AL1" location="INICIO!A1" display="INICIO" xr:uid="{80068AA4-167D-42FE-A150-26A2AC50CC01}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>